--- a/output CSVs/ftai_rise_events.xlsx
+++ b/output CSVs/ftai_rise_events.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,9 @@
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -478,6 +481,21 @@
           <t>Change %</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative %</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Insider Purchases</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -487,20 +505,29 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>23/06/2015</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>38.04</v>
-      </c>
+        <v>15.44</v>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>51/105</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -510,20 +537,29 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>23/06/2015</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>26/08/2015</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>-11.38</v>
-      </c>
+        <v>-28.43</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>99/104</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>-12.99</v>
+      </c>
+      <c r="H3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -533,20 +569,29 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>26/08/2015</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>17.73</v>
-      </c>
+        <v>2.97</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>102/105</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -556,20 +601,29 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>09/09/2015</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>-13.72</v>
-      </c>
+        <v>-10.61</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>69/104</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>-20.63</v>
+      </c>
+      <c r="H5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -579,20 +633,29 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>09/09/2015</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>18/09/2015</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>31.9</v>
-      </c>
+        <v>4.68</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>93/105</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-15.95</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -602,20 +665,29 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>18/09/2015</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>28/09/2015</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>-11.94</v>
-      </c>
+        <v>-5.25</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>23/104</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>-21.2</v>
+      </c>
+      <c r="H7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -625,20 +697,29 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>28/09/2015</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>09/10/2015</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>31.58</v>
-      </c>
+        <v>22.07</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36/105</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -648,20 +729,29 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>09/10/2015</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>29/10/2015</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>-9.220000000000001</v>
-      </c>
+        <v>-14.81</v>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>82/104</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>-13.94</v>
+      </c>
+      <c r="H9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -671,20 +761,29 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>29/10/2015</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>04/11/2015</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>22.49</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>103/105</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>-11.04</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -694,20 +793,29 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>04/11/2015</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>16/12/2015</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>-4.09</v>
-      </c>
+        <v>-25.95</v>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>97/104</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>-36.99</v>
+      </c>
+      <c r="H11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -717,20 +825,29 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>16/12/2015</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>29/12/2015</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>10.98</v>
-      </c>
+        <v>20.19</v>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>39/105</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>-16.8</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -740,20 +857,29 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>29/12/2015</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>20/01/2016</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>-27.69</v>
-      </c>
+        <v>-20.84</v>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>93/104</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>-37.64</v>
+      </c>
+      <c r="H13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -763,20 +889,6329 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>20/01/2016</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>29/01/2016</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
         <v>8</v>
       </c>
       <c r="E14" s="2" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>52/105</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>-22.31</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>29/01/2016</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>03/02/2016</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>-8.960000000000001</v>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>58/104</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>-31.27</v>
+      </c>
+      <c r="H15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>03/02/2016</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>08/02/2016</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>67/105</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>-21.53</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>08/02/2016</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>25/02/2016</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>-16.59</v>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>84/104</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>-38.12</v>
+      </c>
+      <c r="H17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>25/02/2016</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>07/03/2016</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>32/105</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>07/03/2016</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>17/03/2016</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>-6.02</v>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>35/104</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>-21.02</v>
+      </c>
+      <c r="H19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>17/03/2016</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12/04/2016</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>78/105</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>-13.18</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>12/04/2016</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>15/04/2016</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>-5.45</v>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>29/104</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>-18.64</v>
+      </c>
+      <c r="H21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>15/04/2016</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>28/04/2016</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>101/105</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>28/04/2016</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>10/05/2016</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>27/104</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>-21</v>
+      </c>
+      <c r="H23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>10/05/2016</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>09/06/2016</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>48/105</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>-3.86</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>09/06/2016</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>27/06/2016</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>-17.45</v>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>85/104</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>-21.31</v>
+      </c>
+      <c r="H25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>27/06/2016</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>12/08/2016</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>37.93</v>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>13/105</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>12/08/2016</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>22/08/2016</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>-5.12</v>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>20/104</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="H27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>22/08/2016</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>30/09/2016</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>68/105</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>30/09/2016</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>07/10/2016</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>3/104</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="H29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>07/10/2016</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>13/12/2016</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>47/105</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>13/12/2016</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>28/12/2016</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>-5.28</v>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>25/104</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="H31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>28/12/2016</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>09/03/2017</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>38/105</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>09/03/2017</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>14/03/2017</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>21/104</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>44.46</v>
+      </c>
+      <c r="H33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>14/03/2017</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>26/05/2017</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>54/105</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>59.14</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>26/05/2017</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>07/06/2017</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>5/104</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>55.18</v>
+      </c>
+      <c r="H35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>07/06/2017</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>04/08/2017</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>49/105</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>71.22</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>04/08/2017</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>17/08/2017</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>12/104</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>66.70999999999999</v>
+      </c>
+      <c r="H37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>17/08/2017</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>04/01/2018</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>41/105</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>85.64</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>04/01/2018</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2018</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>-10.34</v>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>68/104</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="H39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>19/01/2018</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>26/01/2018</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>105/105</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>77.42</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>26/01/2018</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>20/02/2018</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>-8.779999999999999</v>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>56/104</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>68.64</v>
+      </c>
+      <c r="H41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>20/02/2018</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>26/02/2018</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>104/105</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>71.20999999999999</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>26/02/2018</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>08/03/2018</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>-7.29</v>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>44/104</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>63.92</v>
+      </c>
+      <c r="H43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>08/03/2018</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>06/08/2018</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>26/105</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>06/08/2018</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>24/10/2018</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>71/104</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="H45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>24/10/2018</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>05/11/2018</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>86/105</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>84.34</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>05/11/2018</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2018</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>-25.73</v>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>96/104</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>58.61</v>
+      </c>
+      <c r="H47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>24/12/2018</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>17/01/2019</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>42/105</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>76.48999999999999</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>17/01/2019</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>28/01/2019</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>23/104</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>71.23</v>
+      </c>
+      <c r="H49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>28/01/2019</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>20/03/2019</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>30/105</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>95.12</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>20/03/2019</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>03/06/2019</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>-12.87</v>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>76/104</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>82.26000000000001</v>
+      </c>
+      <c r="H51" s="3" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>03/06/2019</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>13/06/2019</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>100/105</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>13/06/2019</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>19/06/2019</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>-4.02</v>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>6/104</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="H53" s="3" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>19/06/2019</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>02/08/2019</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>91/105</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>02/08/2019</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>14/08/2019</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>-5.21</v>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>22/104</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>81.09</v>
+      </c>
+      <c r="H55" s="3" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>14/08/2019</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>19/09/2019</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>59/105</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>93.23999999999999</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>19/09/2019</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>29/10/2019</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>1/104</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>90.15000000000001</v>
+      </c>
+      <c r="H57" s="3" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>29/10/2019</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>23/01/2020</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>22/105</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>120.59</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>23/01/2020</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>31/01/2020</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>-4.15</v>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>9/104</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>116.44</v>
+      </c>
+      <c r="H59" s="3" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>31/01/2020</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>19/02/2020</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>60/105</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>128.01</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>19/02/2020</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>23/03/2020</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>-69.15000000000001</v>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>104/104</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>58.86</v>
+      </c>
+      <c r="H61" s="3" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>23/03/2020</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>8/105</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>101.16</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>-11.26</v>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>72/104</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>89.91</v>
+      </c>
+      <c r="H63" s="3" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>30/04/2020</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>44.83</v>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>6/105</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>134.74</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>30/04/2020</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>14/05/2020</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>-29.33</v>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>100/104</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>105.41</v>
+      </c>
+      <c r="H65" s="3" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>14/05/2020</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>27/05/2020</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>4/105</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>151.41</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>27/05/2020</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>-5.65</v>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>30/104</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>145.76</v>
+      </c>
+      <c r="H67" s="3" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>08/06/2020</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>21/105</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>176.61</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>08/06/2020</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>11/06/2020</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>-20.67</v>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>91/104</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>155.94</v>
+      </c>
+      <c r="H69" s="3" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>11/06/2020</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>16/06/2020</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>69/105</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>165.03</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>16/06/2020</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>19/06/2020</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>-6.57</v>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>40/104</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>158.46</v>
+      </c>
+      <c r="H71" s="3" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>19/06/2020</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>21/07/2020</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>23/105</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>187.36</v>
+      </c>
+      <c r="H72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>21/07/2020</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>28/07/2020</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t>4/104</t>
+        </is>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>183.77</v>
+      </c>
+      <c r="H73" s="3" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>28/07/2020</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>14/08/2020</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>37/105</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>205.32</v>
+      </c>
+      <c r="H74" s="2" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>14/08/2020</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>31/08/2020</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>-8.220000000000001</v>
+      </c>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
+          <t>51/104</t>
+        </is>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="H75" s="3" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>31/08/2020</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>16/09/2020</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>80/105</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>203.98</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>16/09/2020</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>24/09/2020</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>-7.67</v>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>46/104</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="H77" s="3" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>24/09/2020</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>55/105</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>210.75</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>19/10/2020</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>-8.44</v>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>53/104</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>202.32</v>
+      </c>
+      <c r="H79" s="3" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>19/10/2020</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>23/10/2020</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>61/105</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>213.55</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>23/10/2020</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>28/10/2020</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>-9.869999999999999</v>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>64/104</t>
+        </is>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>203.67</v>
+      </c>
+      <c r="H81" s="3" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>28/10/2020</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45.55</v>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>5/105</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>249.22</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>20/11/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>08/01/2021</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>-6.69</v>
+      </c>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>41/104</t>
+        </is>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>242.53</v>
+      </c>
+      <c r="H83" s="3" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>08/01/2021</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>19/01/2021</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>64/105</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>253.08</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2021</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>29/01/2021</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>-8.68</v>
+      </c>
+      <c r="F85" s="3" t="inlineStr">
+        <is>
+          <t>54/104</t>
+        </is>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="H85" s="3" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>29/01/2021</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>10/02/2021</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>25/105</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>270.96</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>10/02/2021</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>17/02/2021</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>-6.19</v>
+      </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>37/104</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>264.78</v>
+      </c>
+      <c r="H87" s="3" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>17/02/2021</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>23/02/2021</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>95/105</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>269.16</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>23/02/2021</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>25/02/2021</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
+          <t>32/104</t>
+        </is>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>263.46</v>
+      </c>
+      <c r="H89" s="3" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>25/02/2021</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>10/03/2021</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>34/105</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>285.95</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>10/03/2021</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>23/03/2021</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>-13.77</v>
+      </c>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>80/104</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>272.19</v>
+      </c>
+      <c r="H91" s="3" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>23/03/2021</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>26/03/2021</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>71/105</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>280.49</v>
+      </c>
+      <c r="H92" s="2" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>26/03/2021</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>06/04/2021</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>-5.06</v>
+      </c>
+      <c r="F93" s="3" t="inlineStr">
+        <is>
+          <t>18/104</t>
+        </is>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>275.42</v>
+      </c>
+      <c r="H93" s="3" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>06/04/2021</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>09/04/2021</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>99/105</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>278.88</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>09/04/2021</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>26/104</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>273.59</v>
+      </c>
+      <c r="H95" s="3" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>16/04/2021</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>28/04/2021</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>65/105</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>283.7</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>28/04/2021</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>04/05/2021</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>-8.68</v>
+      </c>
+      <c r="F97" s="3" t="inlineStr">
+        <is>
+          <t>54/104</t>
+        </is>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>275.02</v>
+      </c>
+      <c r="H97" s="3" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>04/05/2021</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>22/06/2021</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>24/105</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>302.97</v>
+      </c>
+      <c r="H98" s="2" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>22/06/2021</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>15/07/2021</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>-13.31</v>
+      </c>
+      <c r="F99" s="3" t="inlineStr">
+        <is>
+          <t>77/104</t>
+        </is>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>289.66</v>
+      </c>
+      <c r="H99" s="3" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>15/07/2021</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>21/07/2021</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>98/105</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>293.13</v>
+      </c>
+      <c r="H100" s="2" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>21/07/2021</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>04/08/2021</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>-13.61</v>
+      </c>
+      <c r="F101" s="3" t="inlineStr">
+        <is>
+          <t>78/104</t>
+        </is>
+      </c>
+      <c r="G101" s="3" t="n">
+        <v>279.53</v>
+      </c>
+      <c r="H101" s="3" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>04/08/2021</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>10/08/2021</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>79/105</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>287.18</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>10/08/2021</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>19/08/2021</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>-6.91</v>
+      </c>
+      <c r="F103" s="3" t="inlineStr">
+        <is>
+          <t>43/104</t>
+        </is>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>280.26</v>
+      </c>
+      <c r="H103" s="3" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>19/08/2021</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>27/08/2021</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>83/105</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>286.67</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>27/08/2021</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>14/09/2021</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>-11.87</v>
+      </c>
+      <c r="F105" s="3" t="inlineStr">
+        <is>
+          <t>74/104</t>
+        </is>
+      </c>
+      <c r="G105" s="3" t="n">
+        <v>274.81</v>
+      </c>
+      <c r="H105" s="3" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>14/09/2021</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>04/10/2021</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>92/105</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>279.63</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>04/10/2021</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>14/10/2021</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E107" s="3" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="F107" s="3" t="inlineStr">
+        <is>
+          <t>2/104</t>
+        </is>
+      </c>
+      <c r="G107" s="3" t="n">
+        <v>276.41</v>
+      </c>
+      <c r="H107" s="3" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>14/10/2021</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>27/10/2021</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>70/105</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>284.73</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>27/10/2021</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>02/11/2021</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E109" s="3" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="F109" s="3" t="inlineStr">
+        <is>
+          <t>16/104</t>
+        </is>
+      </c>
+      <c r="G109" s="3" t="n">
+        <v>279.82</v>
+      </c>
+      <c r="H109" s="3" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>02/11/2021</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>08/11/2021</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>97/105</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>283.7</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>08/11/2021</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>01/12/2021</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>-18.54</v>
+      </c>
+      <c r="F111" s="3" t="inlineStr">
+        <is>
+          <t>87/104</t>
+        </is>
+      </c>
+      <c r="G111" s="3" t="n">
+        <v>265.17</v>
+      </c>
+      <c r="H111" s="3" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>01/12/2021</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>27/12/2021</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>38.03</v>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>12/105</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>303.2</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2021</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>03/01/2022</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E113" s="3" t="n">
+        <v>-7.67</v>
+      </c>
+      <c r="F113" s="3" t="inlineStr">
+        <is>
+          <t>46/104</t>
+        </is>
+      </c>
+      <c r="G113" s="3" t="n">
+        <v>295.52</v>
+      </c>
+      <c r="H113" s="3" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>03/01/2022</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>14/01/2022</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>84/105</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>301.81</v>
+      </c>
+      <c r="H114" s="2" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2022</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2022</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E115" s="3" t="n">
+        <v>-10.27</v>
+      </c>
+      <c r="F115" s="3" t="inlineStr">
+        <is>
+          <t>67/104</t>
+        </is>
+      </c>
+      <c r="G115" s="3" t="n">
+        <v>291.55</v>
+      </c>
+      <c r="H115" s="3" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>21/01/2022</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>09/02/2022</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>72/105</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>299.81</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>09/02/2022</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>14/03/2022</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E117" s="3" t="n">
+        <v>-20.75</v>
+      </c>
+      <c r="F117" s="3" t="inlineStr">
+        <is>
+          <t>92/104</t>
+        </is>
+      </c>
+      <c r="G117" s="3" t="n">
+        <v>279.06</v>
+      </c>
+      <c r="H117" s="3" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>14/03/2022</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>57/105</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>292.67</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>23/03/2022</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E119" s="3" t="n">
+        <v>-4.53</v>
+      </c>
+      <c r="F119" s="3" t="inlineStr">
+        <is>
+          <t>13/104</t>
+        </is>
+      </c>
+      <c r="G119" s="3" t="n">
+        <v>288.14</v>
+      </c>
+      <c r="H119" s="3" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>23/03/2022</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>76/105</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>296.11</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>08/04/2022</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E121" s="3" t="n">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="F121" s="3" t="inlineStr">
+        <is>
+          <t>52/104</t>
+        </is>
+      </c>
+      <c r="G121" s="3" t="n">
+        <v>287.82</v>
+      </c>
+      <c r="H121" s="3" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>08/04/2022</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>14/04/2022</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>88/105</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>293.28</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>14/04/2022</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>11/05/2022</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E123" s="3" t="n">
+        <v>-29.49</v>
+      </c>
+      <c r="F123" s="3" t="inlineStr">
+        <is>
+          <t>101/104</t>
+        </is>
+      </c>
+      <c r="G123" s="3" t="n">
+        <v>263.79</v>
+      </c>
+      <c r="H123" s="3" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>11/05/2022</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>07/06/2022</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>33/105</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>286.58</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>07/06/2022</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>13/06/2022</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E125" s="3" t="n">
+        <v>-20.88</v>
+      </c>
+      <c r="F125" s="3" t="inlineStr">
+        <is>
+          <t>94/104</t>
+        </is>
+      </c>
+      <c r="G125" s="3" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="H125" s="3" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>13/06/2022</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>28/07/2022</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>16/105</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>301.09</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>28/07/2022</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="F127" s="3" t="inlineStr">
+        <is>
+          <t>65/104</t>
+        </is>
+      </c>
+      <c r="G127" s="3" t="n">
+        <v>290.88</v>
+      </c>
+      <c r="H127" s="3" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>09/08/2022</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>15/08/2022</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>85/105</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>297.16</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>15/08/2022</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>17/08/2022</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>-5.05</v>
+      </c>
+      <c r="F129" s="3" t="inlineStr">
+        <is>
+          <t>17/104</t>
+        </is>
+      </c>
+      <c r="G129" s="3" t="n">
+        <v>292.12</v>
+      </c>
+      <c r="H129" s="3" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>17/08/2022</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>12/09/2022</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>94/105</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>296.69</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>12/09/2022</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>23/09/2022</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E131" s="3" t="n">
+        <v>-18.52</v>
+      </c>
+      <c r="F131" s="3" t="inlineStr">
+        <is>
+          <t>86/104</t>
+        </is>
+      </c>
+      <c r="G131" s="3" t="n">
+        <v>278.16</v>
+      </c>
+      <c r="H131" s="3" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>23/09/2022</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>04/10/2022</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>53/105</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>292.85</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>04/10/2022</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>20/10/2022</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E133" s="3" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="F133" s="3" t="inlineStr">
+        <is>
+          <t>81/104</t>
+        </is>
+      </c>
+      <c r="G133" s="3" t="n">
+        <v>278.93</v>
+      </c>
+      <c r="H133" s="3" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>20/10/2022</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>10/11/2022</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>29/105</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>303.42</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>09/11/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>10/11/2022</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E135" s="3" t="n">
+        <v>-7.71</v>
+      </c>
+      <c r="F135" s="3" t="inlineStr">
+        <is>
+          <t>48/104</t>
+        </is>
+      </c>
+      <c r="G135" s="3" t="n">
+        <v>295.71</v>
+      </c>
+      <c r="H135" s="3" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>12/12/2022</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>73/105</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>303.95</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>12/12/2022</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>28/12/2022</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E137" s="3" t="n">
+        <v>-8.779999999999999</v>
+      </c>
+      <c r="F137" s="3" t="inlineStr">
+        <is>
+          <t>56/104</t>
+        </is>
+      </c>
+      <c r="G137" s="3" t="n">
+        <v>295.17</v>
+      </c>
+      <c r="H137" s="3" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>28/12/2022</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>06/03/2023</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>59.74</v>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>3/105</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>354.91</v>
+      </c>
+      <c r="H138" s="2" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>06/03/2023</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E139" s="3" t="n">
+        <v>-8.130000000000001</v>
+      </c>
+      <c r="F139" s="3" t="inlineStr">
+        <is>
+          <t>50/104</t>
+        </is>
+      </c>
+      <c r="G139" s="3" t="n">
+        <v>346.78</v>
+      </c>
+      <c r="H139" s="3" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>46/105</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>364.16</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>15/03/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E141" s="3" t="n">
+        <v>-5.65</v>
+      </c>
+      <c r="F141" s="3" t="inlineStr">
+        <is>
+          <t>30/104</t>
+        </is>
+      </c>
+      <c r="G141" s="3" t="n">
+        <v>358.51</v>
+      </c>
+      <c r="H141" s="3" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>05/04/2023</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>28/04/2023</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>77/105</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>366.36</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>28/04/2023</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>04/05/2023</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E143" s="3" t="n">
+        <v>-5.06</v>
+      </c>
+      <c r="F143" s="3" t="inlineStr">
+        <is>
+          <t>18/104</t>
+        </is>
+      </c>
+      <c r="G143" s="3" t="n">
+        <v>361.3</v>
+      </c>
+      <c r="H143" s="3" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>04/05/2023</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>22/05/2023</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>65/105</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>371.41</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>22/05/2023</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>26/05/2023</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E145" s="3" t="n">
+        <v>-5.44</v>
+      </c>
+      <c r="F145" s="3" t="inlineStr">
+        <is>
+          <t>28/104</t>
+        </is>
+      </c>
+      <c r="G145" s="3" t="n">
+        <v>365.97</v>
+      </c>
+      <c r="H145" s="3" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>26/05/2023</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>02/06/2023</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>90/105</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>371.29</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>02/06/2023</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>07/06/2023</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E147" s="3" t="n">
+        <v>-4.74</v>
+      </c>
+      <c r="F147" s="3" t="inlineStr">
+        <is>
+          <t>15/104</t>
+        </is>
+      </c>
+      <c r="G147" s="3" t="n">
+        <v>366.55</v>
+      </c>
+      <c r="H147" s="3" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>07/06/2023</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>21/06/2023</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>80/105</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>373.43</v>
+      </c>
+      <c r="H148" s="2" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>21/06/2023</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>26/06/2023</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E149" s="3" t="n">
+        <v>-5.93</v>
+      </c>
+      <c r="F149" s="3" t="inlineStr">
+        <is>
+          <t>34/104</t>
+        </is>
+      </c>
+      <c r="G149" s="3" t="n">
+        <v>367.49</v>
+      </c>
+      <c r="H149" s="3" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>26/06/2023</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>21/07/2023</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>40/105</t>
+        </is>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>387.09</v>
+      </c>
+      <c r="H150" s="2" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>21/07/2023</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>28/07/2023</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E151" s="3" t="n">
+        <v>-4.53</v>
+      </c>
+      <c r="F151" s="3" t="inlineStr">
+        <is>
+          <t>13/104</t>
+        </is>
+      </c>
+      <c r="G151" s="3" t="n">
+        <v>382.56</v>
+      </c>
+      <c r="H151" s="3" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>28/07/2023</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>43/105</t>
+        </is>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>400.41</v>
+      </c>
+      <c r="H152" s="2" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>21/09/2023</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E153" s="3" t="n">
+        <v>-9.640000000000001</v>
+      </c>
+      <c r="F153" s="3" t="inlineStr">
+        <is>
+          <t>62/104</t>
+        </is>
+      </c>
+      <c r="G153" s="3" t="n">
+        <v>390.77</v>
+      </c>
+      <c r="H153" s="3" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>21/09/2023</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>27/09/2023</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>87/105</t>
+        </is>
+      </c>
+      <c r="G154" s="2" t="n">
+        <v>396.57</v>
+      </c>
+      <c r="H154" s="2" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>27/09/2023</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E155" s="3" t="n">
+        <v>-6.54</v>
+      </c>
+      <c r="F155" s="3" t="inlineStr">
+        <is>
+          <t>39/104</t>
+        </is>
+      </c>
+      <c r="G155" s="3" t="n">
+        <v>390.03</v>
+      </c>
+      <c r="H155" s="3" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>74/105</t>
+        </is>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>398.1</v>
+      </c>
+      <c r="H156" s="2" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>23/10/2023</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E157" s="3" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="F157" s="3" t="inlineStr">
+        <is>
+          <t>60/104</t>
+        </is>
+      </c>
+      <c r="G157" s="3" t="n">
+        <v>388.8</v>
+      </c>
+      <c r="H157" s="3" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>23/10/2023</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>15/11/2023</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>20/105</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="n">
+        <v>419.74</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="inlineStr">
+        <is>
+          <t>15/11/2023</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>29/11/2023</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E159" s="3" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="F159" s="3" t="inlineStr">
+        <is>
+          <t>10/104</t>
+        </is>
+      </c>
+      <c r="G159" s="3" t="n">
+        <v>415.49</v>
+      </c>
+      <c r="H159" s="3" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>29/11/2023</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>02/02/2024</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>14/105</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="n">
+        <v>453.26</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>02/02/2024</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
+        <is>
+          <t>08/02/2024</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E161" s="3" t="n">
+        <v>-5.92</v>
+      </c>
+      <c r="F161" s="3" t="inlineStr">
+        <is>
+          <t>33/104</t>
+        </is>
+      </c>
+      <c r="G161" s="3" t="n">
+        <v>447.34</v>
+      </c>
+      <c r="H161" s="3" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>08/02/2024</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>05/04/2024</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>38.23</v>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>10/105</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="n">
+        <v>485.57</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>05/04/2024</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>18/04/2024</t>
+        </is>
+      </c>
+      <c r="D163" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E163" s="3" t="n">
+        <v>-6.39</v>
+      </c>
+      <c r="F163" s="3" t="inlineStr">
+        <is>
+          <t>38/104</t>
+        </is>
+      </c>
+      <c r="G163" s="3" t="n">
+        <v>479.17</v>
+      </c>
+      <c r="H163" s="3" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>18/04/2024</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>28/05/2024</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="F164" s="2" t="inlineStr">
+        <is>
+          <t>28/105</t>
+        </is>
+      </c>
+      <c r="G164" s="2" t="n">
+        <v>504</v>
+      </c>
+      <c r="H164" s="2" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>28/05/2024</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E165" s="3" t="n">
+        <v>-7.61</v>
+      </c>
+      <c r="F165" s="3" t="inlineStr">
+        <is>
+          <t>45/104</t>
+        </is>
+      </c>
+      <c r="G165" s="3" t="n">
+        <v>496.4</v>
+      </c>
+      <c r="H165" s="3" t="inlineStr">
+        <is>
+          <t>30/05/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>02/07/2024</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>38.04</v>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>11/105</t>
+        </is>
+      </c>
+      <c r="G166" s="2" t="n">
+        <v>534.4400000000001</v>
+      </c>
+      <c r="H166" s="2" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>02/07/2024</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>10/07/2024</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E167" s="3" t="n">
+        <v>-11.38</v>
+      </c>
+      <c r="F167" s="3" t="inlineStr">
+        <is>
+          <t>73/104</t>
+        </is>
+      </c>
+      <c r="G167" s="3" t="n">
+        <v>523.05</v>
+      </c>
+      <c r="H167" s="3" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>10/07/2024</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>26/07/2024</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>44/105</t>
+        </is>
+      </c>
+      <c r="G168" s="2" t="n">
+        <v>540.78</v>
+      </c>
+      <c r="H168" s="2" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>26/07/2024</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>05/08/2024</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E169" s="3" t="n">
+        <v>-13.72</v>
+      </c>
+      <c r="F169" s="3" t="inlineStr">
+        <is>
+          <t>79/104</t>
+        </is>
+      </c>
+      <c r="G169" s="3" t="n">
+        <v>527.0599999999999</v>
+      </c>
+      <c r="H169" s="3" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>05/08/2024</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>30/08/2024</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>18/105</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="n">
+        <v>558.96</v>
+      </c>
+      <c r="H170" s="2" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>30/08/2024</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
+        <is>
+          <t>06/09/2024</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E171" s="3" t="n">
+        <v>-11.94</v>
+      </c>
+      <c r="F171" s="3" t="inlineStr">
+        <is>
+          <t>75/104</t>
+        </is>
+      </c>
+      <c r="G171" s="3" t="n">
+        <v>547.03</v>
+      </c>
+      <c r="H171" s="3" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>06/09/2024</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>14/10/2024</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>19/105</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="n">
+        <v>578.61</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>14/10/2024</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E173" s="3" t="n">
+        <v>-9.220000000000001</v>
+      </c>
+      <c r="F173" s="3" t="inlineStr">
+        <is>
+          <t>59/104</t>
+        </is>
+      </c>
+      <c r="G173" s="3" t="n">
+        <v>569.39</v>
+      </c>
+      <c r="H173" s="3" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>34/105</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="n">
+        <v>591.88</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E175" s="3" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="F175" s="3" t="inlineStr">
+        <is>
+          <t>7/104</t>
+        </is>
+      </c>
+      <c r="G175" s="3" t="n">
+        <v>587.79</v>
+      </c>
+      <c r="H175" s="3" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>63/105</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="n">
+        <v>598.77</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E177" s="3" t="n">
+        <v>-27.69</v>
+      </c>
+      <c r="F177" s="3" t="inlineStr">
+        <is>
+          <t>98/104</t>
+        </is>
+      </c>
+      <c r="G177" s="3" t="n">
+        <v>571.0700000000001</v>
+      </c>
+      <c r="H177" s="3" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E178" s="2" t="n">
         <v>37.56</v>
       </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>15/105</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="n">
+        <v>608.63</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="D179" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E179" s="3" t="n">
+        <v>-51.85</v>
+      </c>
+      <c r="F179" s="3" t="inlineStr">
+        <is>
+          <t>103/104</t>
+        </is>
+      </c>
+      <c r="G179" s="3" t="n">
+        <v>556.78</v>
+      </c>
+      <c r="H179" s="3" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>11/02/2025</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>42.63</v>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>7/105</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="n">
+        <v>599.41</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>11/02/2025</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+      <c r="D181" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E181" s="3" t="n">
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="F181" s="3" t="inlineStr">
+        <is>
+          <t>63/104</t>
+        </is>
+      </c>
+      <c r="G181" s="3" t="n">
+        <v>589.71</v>
+      </c>
+      <c r="H181" s="3" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>20/02/2025</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>17/105</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="n">
+        <v>622.98</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>20/02/2025</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="D183" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E183" s="3" t="n">
+        <v>-29.65</v>
+      </c>
+      <c r="F183" s="3" t="inlineStr">
+        <is>
+          <t>102/104</t>
+        </is>
+      </c>
+      <c r="G183" s="3" t="n">
+        <v>593.33</v>
+      </c>
+      <c r="H183" s="3" t="inlineStr">
+        <is>
+          <t>28/02/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>25/03/2025</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>50/105</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="n">
+        <v>609.25</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>25/03/2025</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E185" s="3" t="n">
+        <v>-24.47</v>
+      </c>
+      <c r="F185" s="3" t="inlineStr">
+        <is>
+          <t>95/104</t>
+        </is>
+      </c>
+      <c r="G185" s="3" t="n">
+        <v>584.78</v>
+      </c>
+      <c r="H185" s="3" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>31/105</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="n">
+        <v>608.14</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>09/04/2025</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>21/04/2025</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E187" s="3" t="n">
+        <v>-19.83</v>
+      </c>
+      <c r="F187" s="3" t="inlineStr">
+        <is>
+          <t>89/104</t>
+        </is>
+      </c>
+      <c r="G187" s="3" t="n">
+        <v>588.3200000000001</v>
+      </c>
+      <c r="H187" s="3" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>21/04/2025</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>27/105</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="n">
+        <v>613.28</v>
+      </c>
+      <c r="H188" s="2" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>29/04/2025</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>01/05/2025</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E189" s="3" t="n">
+        <v>-20.38</v>
+      </c>
+      <c r="F189" s="3" t="inlineStr">
+        <is>
+          <t>90/104</t>
+        </is>
+      </c>
+      <c r="G189" s="3" t="n">
+        <v>592.89</v>
+      </c>
+      <c r="H189" s="3" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>01/05/2025</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>41.21</v>
+      </c>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>9/105</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="n">
+        <v>634.1</v>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>02/05/2025, 05/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>19/05/2025</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+      <c r="D191" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E191" s="3" t="n">
+        <v>-7.74</v>
+      </c>
+      <c r="F191" s="3" t="inlineStr">
+        <is>
+          <t>49/104</t>
+        </is>
+      </c>
+      <c r="G191" s="3" t="n">
+        <v>626.36</v>
+      </c>
+      <c r="H191" s="3" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="F192" s="2" t="inlineStr">
+        <is>
+          <t>56/105</t>
+        </is>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>640.74</v>
+      </c>
+      <c r="H192" s="2" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="D193" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E193" s="3" t="n">
+        <v>-6.83</v>
+      </c>
+      <c r="F193" s="3" t="inlineStr">
+        <is>
+          <t>42/104</t>
+        </is>
+      </c>
+      <c r="G193" s="3" t="n">
+        <v>633.92</v>
+      </c>
+      <c r="H193" s="3" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>24/06/2025</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>58/105</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="n">
+        <v>646.13</v>
+      </c>
+      <c r="H194" s="2" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>24/06/2025</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="D195" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E195" s="3" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="F195" s="3" t="inlineStr">
+        <is>
+          <t>88/104</t>
+        </is>
+      </c>
+      <c r="G195" s="3" t="n">
+        <v>627.4</v>
+      </c>
+      <c r="H195" s="3" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>17/07/2025</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>89/105</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>632.77</v>
+      </c>
+      <c r="H196" s="2" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>17/07/2025</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
+        <is>
+          <t>22/07/2025</t>
+        </is>
+      </c>
+      <c r="D197" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E197" s="3" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="F197" s="3" t="inlineStr">
+        <is>
+          <t>7/104</t>
+        </is>
+      </c>
+      <c r="G197" s="3" t="n">
+        <v>628.6799999999999</v>
+      </c>
+      <c r="H197" s="3" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>22/07/2025</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>2/105</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>693.02</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>22/09/2025</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E199" s="3" t="n">
+        <v>-10.24</v>
+      </c>
+      <c r="F199" s="3" t="inlineStr">
+        <is>
+          <t>66/104</t>
+        </is>
+      </c>
+      <c r="G199" s="3" t="n">
+        <v>682.78</v>
+      </c>
+      <c r="H199" s="3" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>82/105</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>689.45</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>15/10/2025</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
+          <t>17/10/2025</t>
+        </is>
+      </c>
+      <c r="D201" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E201" s="3" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="F201" s="3" t="inlineStr">
+        <is>
+          <t>11/104</t>
+        </is>
+      </c>
+      <c r="G201" s="3" t="n">
+        <v>685.15</v>
+      </c>
+      <c r="H201" s="3" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>17/10/2025</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>27/10/2025</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>62/105</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="n">
+        <v>696.2</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>27/10/2025</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E203" s="3" t="n">
+        <v>-16.07</v>
+      </c>
+      <c r="F203" s="3" t="inlineStr">
+        <is>
+          <t>83/104</t>
+        </is>
+      </c>
+      <c r="G203" s="3" t="n">
+        <v>680.13</v>
+      </c>
+      <c r="H203" s="3" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>45/105</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="n">
+        <v>697.63</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>13/11/2025, 14/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B205" s="3" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="C205" s="3" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="D205" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E205" s="3" t="n">
+        <v>-10.62</v>
+      </c>
+      <c r="F205" s="3" t="inlineStr">
+        <is>
+          <t>70/104</t>
+        </is>
+      </c>
+      <c r="G205" s="3" t="n">
+        <v>687.01</v>
+      </c>
+      <c r="H205" s="3" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>22/01/2026</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>80.29000000000001</v>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>1/105</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="n">
+        <v>767.3</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B207" s="3" t="inlineStr">
+        <is>
+          <t>22/01/2026</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="inlineStr">
+        <is>
+          <t>28/01/2026</t>
+        </is>
+      </c>
+      <c r="D207" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E207" s="3" t="n">
+        <v>-6.08</v>
+      </c>
+      <c r="F207" s="3" t="inlineStr">
+        <is>
+          <t>36/104</t>
+        </is>
+      </c>
+      <c r="G207" s="3" t="n">
+        <v>761.22</v>
+      </c>
+      <c r="H207" s="3" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>28/01/2026</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>96/105</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="n">
+        <v>765.15</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="inlineStr">
+        <is>
+          <t>DOWN</t>
+        </is>
+      </c>
+      <c r="B209" s="3" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="C209" s="3" t="inlineStr">
+        <is>
+          <t>05/02/2026</t>
+        </is>
+      </c>
+      <c r="D209" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E209" s="3" t="n">
+        <v>-9.550000000000001</v>
+      </c>
+      <c r="F209" s="3" t="inlineStr">
+        <is>
+          <t>61/104</t>
+        </is>
+      </c>
+      <c r="G209" s="3" t="n">
+        <v>755.6</v>
+      </c>
+      <c r="H209" s="3" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>RISE</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>05/02/2026</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>13/02/2026</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>75/105</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="n">
+        <v>763.6</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output CSVs/ftai_rise_events.xlsx
+++ b/output CSVs/ftai_rise_events.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,27 +505,27 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>06/10/2015</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>23/06/2015</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.44</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>51/105</t>
+          <t>19/90</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>15.44</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2" t="inlineStr"/>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>23/06/2015</t>
+          <t>13/10/2015</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>26/08/2015</t>
+          <t>22/10/2015</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>-28.43</v>
+        <v>-56.67</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>99/104</t>
+          <t>74/89</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
-        <v>-12.99</v>
+        <v>-13.33</v>
       </c>
       <c r="H3" s="3" t="inlineStr"/>
     </row>
@@ -569,27 +569,27 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>26/08/2015</t>
+          <t>22/10/2015</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>29/10/2015</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.97</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>102/105</t>
+          <t>27/90</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-10.02</v>
+        <v>46.6</v>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>29/10/2015</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>09/09/2015</t>
+          <t>02/11/2015</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>-10.61</v>
+        <v>-31.74</v>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>69/104</t>
+          <t>38/89</t>
         </is>
       </c>
       <c r="G5" s="3" t="n">
-        <v>-20.63</v>
+        <v>0.06</v>
       </c>
       <c r="H5" s="3" t="inlineStr"/>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>09/09/2015</t>
+          <t>02/11/2015</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18/09/2015</t>
+          <t>09/11/2015</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.68</v>
+        <v>133.18</v>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>93/105</t>
+          <t>13/90</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-15.95</v>
+        <v>133.33</v>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>18/09/2015</t>
+          <t>09/11/2015</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>28/09/2015</t>
+          <t>13/11/2015</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>-5.25</v>
+        <v>-48.57</v>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>23/104</t>
+          <t>65/89</t>
         </is>
       </c>
       <c r="G7" s="3" t="n">
-        <v>-21.2</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3" t="inlineStr"/>
     </row>
@@ -697,27 +697,27 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>28/09/2015</t>
+          <t>13/11/2015</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>09/10/2015</t>
+          <t>20/11/2015</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>22.07</v>
+        <v>93.89</v>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36/105</t>
+          <t>20/90</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.87</v>
+        <v>132.66</v>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
     </row>
@@ -729,27 +729,27 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>09/10/2015</t>
+          <t>20/11/2015</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>29/10/2015</t>
+          <t>15/12/2015</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>-14.81</v>
+        <v>-57.02</v>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>82/104</t>
+          <t>75/89</t>
         </is>
       </c>
       <c r="G9" s="3" t="n">
-        <v>-13.94</v>
+        <v>-0</v>
       </c>
       <c r="H9" s="3" t="inlineStr"/>
     </row>
@@ -761,27 +761,27 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>29/10/2015</t>
+          <t>15/12/2015</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>04/11/2015</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2.9</v>
+        <v>33.33</v>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>103/105</t>
+          <t>47/90</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>-11.04</v>
+        <v>33.33</v>
       </c>
       <c r="H10" s="2" t="inlineStr"/>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>04/11/2015</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>16/12/2015</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>-25.95</v>
+        <v>-33</v>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>97/104</t>
+          <t>41/89</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
-        <v>-36.99</v>
+        <v>-10.67</v>
       </c>
       <c r="H11" s="3" t="inlineStr"/>
     </row>
@@ -825,27 +825,27 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>16/12/2015</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>29/12/2015</t>
+          <t>28/01/2016</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>20.19</v>
+        <v>71.64</v>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39/105</t>
+          <t>25/90</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>-16.8</v>
+        <v>53.33</v>
       </c>
       <c r="H12" s="2" t="inlineStr"/>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>29/12/2015</t>
+          <t>28/01/2016</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>20/01/2016</t>
+          <t>08/02/2016</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>-20.84</v>
+        <v>-43.48</v>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>93/104</t>
+          <t>57/89</t>
         </is>
       </c>
       <c r="G13" s="3" t="n">
-        <v>-37.64</v>
+        <v>-13.34</v>
       </c>
       <c r="H13" s="3" t="inlineStr"/>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>20/01/2016</t>
+          <t>08/02/2016</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29/01/2016</t>
+          <t>17/02/2016</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>15.33</v>
+        <v>30.77</v>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>52/105</t>
+          <t>51/90</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>-22.31</v>
+        <v>13.33</v>
       </c>
       <c r="H14" s="2" t="inlineStr"/>
     </row>
@@ -921,27 +921,27 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>29/01/2016</t>
+          <t>17/02/2016</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>03/02/2016</t>
+          <t>03/03/2016</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>-8.960000000000001</v>
+        <v>-52.94</v>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>58/104</t>
+          <t>70/89</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
-        <v>-31.27</v>
+        <v>-46.67</v>
       </c>
       <c r="H15" s="3" t="inlineStr"/>
     </row>
@@ -953,27 +953,27 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>03/02/2016</t>
+          <t>03/03/2016</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>08/02/2016</t>
+          <t>17/03/2016</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>9.74</v>
+        <v>56.25</v>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>67/105</t>
+          <t>33/90</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>-21.53</v>
+        <v>-16.67</v>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
     </row>
@@ -985,27 +985,27 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>08/02/2016</t>
+          <t>17/03/2016</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>25/02/2016</t>
+          <t>07/04/2016</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>-16.59</v>
+        <v>-19.2</v>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>84/104</t>
+          <t>16/89</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
-        <v>-38.12</v>
+        <v>-32.67</v>
       </c>
       <c r="H17" s="3" t="inlineStr"/>
     </row>
@@ -1017,27 +1017,27 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>25/02/2016</t>
+          <t>07/04/2016</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>07/03/2016</t>
+          <t>19/04/2016</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
         <v>8</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>23.12</v>
+        <v>246.53</v>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>32/105</t>
+          <t>6/90</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>-15</v>
+        <v>133.32</v>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>07/03/2016</t>
+          <t>19/04/2016</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>17/03/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>-6.02</v>
+        <v>-74.26000000000001</v>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>35/104</t>
+          <t>87/89</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
-        <v>-21.02</v>
+        <v>-39.94</v>
       </c>
       <c r="H19" s="3" t="inlineStr"/>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>17/03/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>12/04/2016</t>
+          <t>13/06/2016</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>7.84</v>
+        <v>101.8</v>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>78/105</t>
+          <t>18/90</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>-13.18</v>
+        <v>21.21</v>
       </c>
       <c r="H20" s="2" t="inlineStr"/>
     </row>
@@ -1113,27 +1113,27 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>12/04/2016</t>
+          <t>13/06/2016</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>15/04/2016</t>
+          <t>30/06/2016</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>-5.45</v>
+        <v>-50</v>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>29/104</t>
+          <t>67/89</t>
         </is>
       </c>
       <c r="G21" s="3" t="n">
-        <v>-18.64</v>
+        <v>-39.4</v>
       </c>
       <c r="H21" s="3" t="inlineStr"/>
     </row>
@@ -1145,27 +1145,27 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>15/04/2016</t>
+          <t>30/06/2016</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>28/04/2016</t>
+          <t>13/07/2016</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>3.04</v>
+        <v>60</v>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>101/105</t>
+          <t>30/90</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>-15.6</v>
+        <v>-3.03</v>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
     </row>
@@ -1177,27 +1177,27 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>28/04/2016</t>
+          <t>13/07/2016</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>10/05/2016</t>
+          <t>22/09/2016</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>-5.4</v>
+        <v>-31</v>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>27/104</t>
+          <t>36/89</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
-        <v>-21</v>
+        <v>-33.09</v>
       </c>
       <c r="H23" s="3" t="inlineStr"/>
     </row>
@@ -1209,27 +1209,27 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>10/05/2016</t>
+          <t>22/09/2016</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>09/06/2016</t>
+          <t>06/10/2016</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>17.14</v>
+        <v>17.75</v>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>48/105</t>
+          <t>69/90</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>-3.86</v>
+        <v>-21.22</v>
       </c>
       <c r="H24" s="2" t="inlineStr"/>
     </row>
@@ -1241,27 +1241,27 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>09/06/2016</t>
+          <t>06/10/2016</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>27/06/2016</t>
+          <t>19/10/2016</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>-17.45</v>
+        <v>-26.15</v>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>85/104</t>
+          <t>29/89</t>
         </is>
       </c>
       <c r="G25" s="3" t="n">
-        <v>-21.31</v>
+        <v>-41.82</v>
       </c>
       <c r="H25" s="3" t="inlineStr"/>
     </row>
@@ -1273,27 +1273,27 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>27/06/2016</t>
+          <t>19/10/2016</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>11/11/2016</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>37.93</v>
+        <v>49.98</v>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>13/105</t>
+          <t>39/90</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>16.62</v>
+        <v>-12.74</v>
       </c>
       <c r="H26" s="2" t="inlineStr"/>
     </row>
@@ -1305,27 +1305,27 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>11/11/2016</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>30/11/2016</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>-5.12</v>
+        <v>-65.27</v>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>20/104</t>
+          <t>85/89</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
-        <v>11.51</v>
+        <v>-69.7</v>
       </c>
       <c r="H27" s="3" t="inlineStr"/>
     </row>
@@ -1337,27 +1337,27 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>30/11/2016</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>30/09/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>9.26</v>
+        <v>162</v>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>68/105</t>
+          <t>9/90</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>20.77</v>
+        <v>-20.61</v>
       </c>
       <c r="H28" s="2" t="inlineStr"/>
     </row>
@@ -1369,27 +1369,27 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>30/09/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>07/10/2016</t>
+          <t>22/12/2016</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>-3.36</v>
+        <v>-32.06</v>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>3/104</t>
+          <t>39/89</t>
         </is>
       </c>
       <c r="G29" s="3" t="n">
-        <v>17.41</v>
+        <v>-46.06</v>
       </c>
       <c r="H29" s="3" t="inlineStr"/>
     </row>
@@ -1401,27 +1401,27 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>07/10/2016</t>
+          <t>22/12/2016</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>13/12/2016</t>
+          <t>28/12/2016</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>17.27</v>
+        <v>21.35</v>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>47/105</t>
+          <t>63/90</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>34.68</v>
+        <v>-34.55</v>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
     </row>
@@ -1433,27 +1433,27 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>13/12/2016</t>
+          <t>28/12/2016</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>28/12/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>-5.28</v>
+        <v>-25.83</v>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>25/104</t>
+          <t>28/89</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
-        <v>29.4</v>
+        <v>-51.46</v>
       </c>
       <c r="H31" s="3" t="inlineStr"/>
     </row>
@@ -1465,27 +1465,27 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>28/12/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>09/03/2017</t>
+          <t>09/01/2017</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>20.25</v>
+        <v>29.84</v>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>38/105</t>
+          <t>53/90</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>49.65</v>
+        <v>-36.97</v>
       </c>
       <c r="H32" s="2" t="inlineStr"/>
     </row>
@@ -1497,27 +1497,27 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>09/03/2017</t>
+          <t>09/01/2017</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>14/03/2017</t>
+          <t>10/04/2017</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>-5.19</v>
+        <v>-42.1</v>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>21/104</t>
+          <t>55/89</t>
         </is>
       </c>
       <c r="G33" s="3" t="n">
-        <v>44.46</v>
+        <v>-63.5</v>
       </c>
       <c r="H33" s="3" t="inlineStr"/>
     </row>
@@ -1529,27 +1529,27 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>14/03/2017</t>
+          <t>10/04/2017</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>26/05/2017</t>
+          <t>19/04/2017</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>14.68</v>
+        <v>36.17</v>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>54/105</t>
+          <t>46/90</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>59.14</v>
+        <v>-50.3</v>
       </c>
       <c r="H34" s="2" t="inlineStr"/>
     </row>
@@ -1561,27 +1561,27 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>26/05/2017</t>
+          <t>19/04/2017</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>07/06/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>-3.96</v>
+        <v>-26.56</v>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>5/104</t>
+          <t>30/89</t>
         </is>
       </c>
       <c r="G35" s="3" t="n">
-        <v>55.18</v>
+        <v>-63.5</v>
       </c>
       <c r="H35" s="3" t="inlineStr"/>
     </row>
@@ -1593,27 +1593,27 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>07/06/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>30/05/2017</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>16.04</v>
+        <v>32.85</v>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>49/105</t>
+          <t>49/90</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>71.22</v>
+        <v>-51.51</v>
       </c>
       <c r="H36" s="2" t="inlineStr"/>
     </row>
@@ -1625,27 +1625,27 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>30/05/2017</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>17/08/2017</t>
+          <t>07/07/2017</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>-4.51</v>
+        <v>-16.75</v>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>12/104</t>
+          <t>12/89</t>
         </is>
       </c>
       <c r="G37" s="3" t="n">
-        <v>66.70999999999999</v>
+        <v>-59.64</v>
       </c>
       <c r="H37" s="3" t="inlineStr"/>
     </row>
@@ -1657,27 +1657,27 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>17/08/2017</t>
+          <t>07/07/2017</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>04/01/2018</t>
+          <t>20/07/2017</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>18.93</v>
+        <v>20.12</v>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>41/105</t>
+          <t>66/90</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>85.64</v>
+        <v>-51.51</v>
       </c>
       <c r="H38" s="2" t="inlineStr"/>
     </row>
@@ -1689,27 +1689,27 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>04/01/2018</t>
+          <t>20/07/2017</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>19/01/2018</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>-10.34</v>
+        <v>-24.97</v>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>68/104</t>
+          <t>23/89</t>
         </is>
       </c>
       <c r="G39" s="3" t="n">
-        <v>75.3</v>
+        <v>-63.62</v>
       </c>
       <c r="H39" s="3" t="inlineStr"/>
     </row>
@@ -1721,27 +1721,27 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>19/01/2018</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>26/01/2018</t>
+          <t>25/08/2017</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2.12</v>
+        <v>23.8</v>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>105/105</t>
+          <t>59/90</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>77.42</v>
+        <v>-54.97</v>
       </c>
       <c r="H40" s="2" t="inlineStr"/>
     </row>
@@ -1753,27 +1753,27 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>26/01/2018</t>
+          <t>25/08/2017</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>26/10/2017</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>-8.779999999999999</v>
+        <v>-43.48</v>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>56/104</t>
+          <t>57/89</t>
         </is>
       </c>
       <c r="G41" s="3" t="n">
-        <v>68.64</v>
+        <v>-74.54000000000001</v>
       </c>
       <c r="H41" s="3" t="inlineStr"/>
     </row>
@@ -1785,27 +1785,27 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>26/10/2017</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>26/02/2018</t>
+          <t>18/12/2017</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>2.57</v>
+        <v>56.19</v>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>104/105</t>
+          <t>34/90</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>71.20999999999999</v>
+        <v>-60.24</v>
       </c>
       <c r="H42" s="2" t="inlineStr"/>
     </row>
@@ -1817,27 +1817,27 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>26/02/2018</t>
+          <t>18/12/2017</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>08/03/2018</t>
+          <t>21/12/2017</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>-7.29</v>
+        <v>-11.59</v>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>44/104</t>
+          <t>6/89</t>
         </is>
       </c>
       <c r="G43" s="3" t="n">
-        <v>63.92</v>
+        <v>-64.84999999999999</v>
       </c>
       <c r="H43" s="3" t="inlineStr"/>
     </row>
@@ -1849,27 +1849,27 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>08/03/2018</t>
+          <t>21/12/2017</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>06/08/2018</t>
+          <t>27/02/2018</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>25.48</v>
+        <v>13.79</v>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>26/105</t>
+          <t>79/90</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>89.40000000000001</v>
+        <v>-60</v>
       </c>
       <c r="H44" s="2" t="inlineStr"/>
     </row>
@@ -1881,27 +1881,27 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>06/08/2018</t>
+          <t>27/02/2018</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>24/10/2018</t>
+          <t>02/08/2018</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>-10.9</v>
+        <v>-63.64</v>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>71/104</t>
+          <t>83/89</t>
         </is>
       </c>
       <c r="G45" s="3" t="n">
-        <v>78.5</v>
+        <v>-85.45</v>
       </c>
       <c r="H45" s="3" t="inlineStr"/>
     </row>
@@ -1913,27 +1913,27 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>24/10/2018</t>
+          <t>02/08/2018</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>05/11/2018</t>
+          <t>10/08/2018</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>5.84</v>
+        <v>57.58</v>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>86/105</t>
+          <t>31/90</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>84.34</v>
+        <v>-77.08</v>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
     </row>
@@ -1945,27 +1945,27 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>05/11/2018</t>
+          <t>10/08/2018</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>24/12/2018</t>
+          <t>27/11/2018</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>-25.73</v>
+        <v>-41.78</v>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>96/104</t>
+          <t>53/89</t>
         </is>
       </c>
       <c r="G47" s="3" t="n">
-        <v>58.61</v>
+        <v>-86.65000000000001</v>
       </c>
       <c r="H47" s="3" t="inlineStr"/>
     </row>
@@ -1977,27 +1977,27 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>24/12/2018</t>
+          <t>27/11/2018</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>17/01/2019</t>
+          <t>27/03/2019</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>17.88</v>
+        <v>354.13</v>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>42/105</t>
+          <t>4/90</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>76.48999999999999</v>
+        <v>-39.4</v>
       </c>
       <c r="H48" s="2" t="inlineStr"/>
     </row>
@@ -2009,27 +2009,27 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>17/01/2019</t>
+          <t>27/03/2019</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>28/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>-5.25</v>
+        <v>-44</v>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>23/104</t>
+          <t>59/89</t>
         </is>
       </c>
       <c r="G49" s="3" t="n">
-        <v>71.23</v>
+        <v>-66.06</v>
       </c>
       <c r="H49" s="3" t="inlineStr"/>
     </row>
@@ -2041,27 +2041,27 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>28/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>08/04/2019</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>23.89</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>30/105</t>
+          <t>26/90</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>95.12</v>
+        <v>-41.82</v>
       </c>
       <c r="H50" s="2" t="inlineStr"/>
     </row>
@@ -2073,27 +2073,27 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>08/04/2019</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>31/05/2019</t>
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>-12.87</v>
+        <v>-77.08</v>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>76/104</t>
+          <t>88/89</t>
         </is>
       </c>
       <c r="G51" s="3" t="n">
-        <v>82.26000000000001</v>
+        <v>-86.67</v>
       </c>
       <c r="H51" s="3" t="inlineStr"/>
     </row>
@@ -2105,27 +2105,27 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>31/05/2019</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>13/06/2019</t>
+          <t>24/06/2019</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
         <v>9</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>3.07</v>
+        <v>62.73</v>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>100/105</t>
+          <t>28/90</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>85.33</v>
+        <v>-78.3</v>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
     </row>
@@ -2137,27 +2137,27 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>13/06/2019</t>
+          <t>24/06/2019</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>19/06/2019</t>
+          <t>22/08/2019</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>-4.02</v>
+        <v>-60.89</v>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>6/104</t>
+          <t>79/89</t>
         </is>
       </c>
       <c r="G53" s="3" t="n">
-        <v>81.3</v>
+        <v>-91.52</v>
       </c>
       <c r="H53" s="3" t="inlineStr"/>
     </row>
@@ -2169,27 +2169,27 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>19/06/2019</t>
+          <t>22/08/2019</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>02/08/2019</t>
+          <t>27/08/2019</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>5</v>
+        <v>14.29</v>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>91/105</t>
+          <t>77/90</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>86.3</v>
+        <v>-90.3</v>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
     </row>
@@ -2201,27 +2201,27 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>02/08/2019</t>
+          <t>27/08/2019</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>14/08/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>-5.21</v>
+        <v>-37.5</v>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>22/104</t>
+          <t>48/89</t>
         </is>
       </c>
       <c r="G55" s="3" t="n">
-        <v>81.09</v>
+        <v>-93.94</v>
       </c>
       <c r="H55" s="3" t="inlineStr"/>
     </row>
@@ -2233,27 +2233,27 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>14/08/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>19/09/2019</t>
+          <t>08/01/2020</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>12.15</v>
+        <v>23.5</v>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>59/105</t>
+          <t>60/90</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>93.23999999999999</v>
+        <v>-92.51000000000001</v>
       </c>
       <c r="H56" s="2" t="inlineStr"/>
     </row>
@@ -2265,27 +2265,27 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>19/09/2019</t>
+          <t>08/01/2020</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>29/10/2019</t>
+          <t>10/02/2020</t>
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>-3.1</v>
+        <v>-53.04</v>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>1/104</t>
+          <t>71/89</t>
         </is>
       </c>
       <c r="G57" s="3" t="n">
-        <v>90.15000000000001</v>
+        <v>-96.48</v>
       </c>
       <c r="H57" s="3" t="inlineStr"/>
     </row>
@@ -2297,27 +2297,27 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>29/10/2019</t>
+          <t>10/02/2020</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>23/01/2020</t>
+          <t>14/02/2020</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>30.44</v>
+        <v>6.9</v>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>22/105</t>
+          <t>88/90</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>120.59</v>
+        <v>-96.23999999999999</v>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
     </row>
@@ -2329,27 +2329,27 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>23/01/2020</t>
+          <t>14/02/2020</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>31/01/2020</t>
+          <t>21/02/2020</t>
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>-4.15</v>
+        <v>-9.68</v>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>9/104</t>
+          <t>3/89</t>
         </is>
       </c>
       <c r="G59" s="3" t="n">
-        <v>116.44</v>
+        <v>-96.61</v>
       </c>
       <c r="H59" s="3" t="inlineStr"/>
     </row>
@@ -2361,27 +2361,27 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>31/01/2020</t>
+          <t>21/02/2020</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>28/02/2020</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>11.57</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>60/105</t>
+          <t>24/90</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>128.01</v>
+        <v>-93.94</v>
       </c>
       <c r="H60" s="2" t="inlineStr"/>
     </row>
@@ -2393,27 +2393,27 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>28/02/2020</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>27/03/2020</t>
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E61" s="3" t="n">
-        <v>-69.15000000000001</v>
+        <v>-40</v>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>104/104</t>
+          <t>51/89</t>
         </is>
       </c>
       <c r="G61" s="3" t="n">
-        <v>58.86</v>
+        <v>-96.36</v>
       </c>
       <c r="H61" s="3" t="inlineStr"/>
     </row>
@@ -2425,27 +2425,27 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>27/03/2020</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>26/03/2020</t>
+          <t>16/04/2020</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>42.3</v>
+        <v>146.67</v>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>8/105</t>
+          <t>11/90</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>101.16</v>
+        <v>-91.03</v>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
     </row>
@@ -2457,27 +2457,27 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>26/03/2020</t>
+          <t>16/04/2020</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>30/03/2020</t>
+          <t>08/05/2020</t>
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>-11.26</v>
+        <v>-52.57</v>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>72/104</t>
+          <t>69/89</t>
         </is>
       </c>
       <c r="G63" s="3" t="n">
-        <v>89.91</v>
+        <v>-95.75</v>
       </c>
       <c r="H63" s="3" t="inlineStr"/>
     </row>
@@ -2489,27 +2489,27 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>30/03/2020</t>
+          <t>08/05/2020</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>30/04/2020</t>
+          <t>14/05/2020</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44.83</v>
+        <v>19.66</v>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>6/105</t>
+          <t>67/90</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>134.74</v>
+        <v>-94.91</v>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
     </row>
@@ -2521,27 +2521,27 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>30/04/2020</t>
+          <t>14/05/2020</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>14/05/2020</t>
+          <t>18/05/2020</t>
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>-29.33</v>
+        <v>-25</v>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>100/104</t>
+          <t>24/89</t>
         </is>
       </c>
       <c r="G65" s="3" t="n">
-        <v>105.41</v>
+        <v>-96.18000000000001</v>
       </c>
       <c r="H65" s="3" t="inlineStr"/>
     </row>
@@ -2553,27 +2553,27 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>14/05/2020</t>
+          <t>18/05/2020</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>27/05/2020</t>
+          <t>10/06/2020</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>46</v>
+        <v>20.63</v>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>4/105</t>
+          <t>65/90</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>151.41</v>
+        <v>-95.39</v>
       </c>
       <c r="H66" s="2" t="inlineStr"/>
     </row>
@@ -2585,27 +2585,27 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>27/05/2020</t>
+          <t>10/06/2020</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>-5.65</v>
+        <v>-30.92</v>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>30/104</t>
+          <t>35/89</t>
         </is>
       </c>
       <c r="G67" s="3" t="n">
-        <v>145.76</v>
+        <v>-96.81999999999999</v>
       </c>
       <c r="H67" s="3" t="inlineStr"/>
     </row>
@@ -2617,27 +2617,27 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>24/07/2020</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>08/06/2020</t>
+          <t>30/07/2020</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>30.85</v>
+        <v>10.48</v>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>21/105</t>
+          <t>84/90</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>176.61</v>
+        <v>-96.48</v>
       </c>
       <c r="H68" s="2" t="inlineStr"/>
     </row>
@@ -2649,27 +2649,27 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>08/06/2020</t>
+          <t>30/07/2020</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>11/06/2020</t>
+          <t>03/08/2020</t>
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>-20.67</v>
+        <v>-14.21</v>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>91/104</t>
+          <t>10/89</t>
         </is>
       </c>
       <c r="G69" s="3" t="n">
-        <v>155.94</v>
+        <v>-96.98</v>
       </c>
       <c r="H69" s="3" t="inlineStr"/>
     </row>
@@ -2681,27 +2681,27 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>11/06/2020</t>
+          <t>03/08/2020</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>16/06/2020</t>
+          <t>18/08/2020</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>9.09</v>
+        <v>28.62</v>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>69/105</t>
+          <t>54/90</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>165.03</v>
+        <v>-96.12</v>
       </c>
       <c r="H70" s="2" t="inlineStr"/>
     </row>
@@ -2713,27 +2713,27 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>16/06/2020</t>
+          <t>18/08/2020</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>19/06/2020</t>
+          <t>21/08/2020</t>
         </is>
       </c>
       <c r="D71" s="3" t="n">
         <v>3</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>-6.57</v>
+        <v>-9.380000000000001</v>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>40/104</t>
+          <t>2/89</t>
         </is>
       </c>
       <c r="G71" s="3" t="n">
-        <v>158.46</v>
+        <v>-96.48</v>
       </c>
       <c r="H71" s="3" t="inlineStr"/>
     </row>
@@ -2745,27 +2745,27 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>19/06/2020</t>
+          <t>21/08/2020</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>21/07/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>28.9</v>
+        <v>6.9</v>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>23/105</t>
+          <t>88/90</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>187.36</v>
+        <v>-96.23999999999999</v>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
     </row>
@@ -2777,27 +2777,27 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>21/07/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>28/07/2020</t>
+          <t>09/09/2020</t>
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>-3.59</v>
+        <v>-34.19</v>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>4/104</t>
+          <t>44/89</t>
         </is>
       </c>
       <c r="G73" s="3" t="n">
-        <v>183.77</v>
+        <v>-97.53</v>
       </c>
       <c r="H73" s="3" t="inlineStr"/>
     </row>
@@ -2809,27 +2809,27 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>28/07/2020</t>
+          <t>09/09/2020</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>14/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>21.55</v>
+        <v>61.76</v>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>37/105</t>
+          <t>29/90</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>205.32</v>
+        <v>-96</v>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
     </row>
@@ -2841,27 +2841,27 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>14/08/2020</t>
+          <t>24/09/2020</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>05/10/2020</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E75" s="3" t="n">
-        <v>-8.220000000000001</v>
+        <v>-33.33</v>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>51/104</t>
+          <t>42/89</t>
         </is>
       </c>
       <c r="G75" s="3" t="n">
-        <v>197.1</v>
+        <v>-97.33</v>
       </c>
       <c r="H75" s="3" t="inlineStr"/>
     </row>
@@ -2873,27 +2873,27 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>05/10/2020</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>16/09/2020</t>
+          <t>12/10/2020</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>6.88</v>
+        <v>36.36</v>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>80/105</t>
+          <t>45/90</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>203.98</v>
+        <v>-96.36</v>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
     </row>
@@ -2905,27 +2905,27 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>16/09/2020</t>
+          <t>12/10/2020</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>24/09/2020</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>-7.67</v>
+        <v>-30.17</v>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>46/104</t>
+          <t>33/89</t>
         </is>
       </c>
       <c r="G77" s="3" t="n">
-        <v>196.3</v>
+        <v>-97.45999999999999</v>
       </c>
       <c r="H77" s="3" t="inlineStr"/>
     </row>
@@ -2937,27 +2937,27 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>24/09/2020</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>03/11/2020</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>14.45</v>
+        <v>38.42</v>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>55/105</t>
+          <t>43/90</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>210.75</v>
+        <v>-96.48</v>
       </c>
       <c r="H78" s="2" t="inlineStr"/>
     </row>
@@ -2969,27 +2969,27 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>03/11/2020</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="D79" s="3" t="n">
         <v>12</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>-8.44</v>
+        <v>-45.86</v>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>53/104</t>
+          <t>63/89</t>
         </is>
       </c>
       <c r="G79" s="3" t="n">
-        <v>202.32</v>
+        <v>-98.09999999999999</v>
       </c>
       <c r="H79" s="3" t="inlineStr"/>
     </row>
@@ -3001,27 +3001,27 @@
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>23/10/2020</t>
+          <t>27/11/2020</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>11.23</v>
+        <v>27.39</v>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>61/105</t>
+          <t>55/90</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>213.55</v>
+        <v>-97.58</v>
       </c>
       <c r="H80" s="2" t="inlineStr"/>
     </row>
@@ -3033,27 +3033,27 @@
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>23/10/2020</t>
+          <t>27/11/2020</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>28/10/2020</t>
+          <t>21/12/2020</t>
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>-9.869999999999999</v>
+        <v>-12.5</v>
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>64/104</t>
+          <t>7/89</t>
         </is>
       </c>
       <c r="G81" s="3" t="n">
-        <v>203.67</v>
+        <v>-97.88</v>
       </c>
       <c r="H81" s="3" t="inlineStr"/>
     </row>
@@ -3065,33 +3065,29 @@
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>28/10/2020</t>
+          <t>21/12/2020</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>19/01/2021</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45.55</v>
+        <v>37.14</v>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>5/105</t>
+          <t>44/90</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>249.22</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>20/11/2020</t>
-        </is>
-      </c>
+        <v>-97.09</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
@@ -3101,27 +3097,27 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>19/01/2021</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>08/01/2021</t>
+          <t>29/01/2021</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>-6.69</v>
+        <v>-12.5</v>
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>41/104</t>
+          <t>7/89</t>
         </is>
       </c>
       <c r="G83" s="3" t="n">
-        <v>242.53</v>
+        <v>-97.45</v>
       </c>
       <c r="H83" s="3" t="inlineStr"/>
     </row>
@@ -3133,27 +3129,27 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>08/01/2021</t>
+          <t>29/01/2021</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>19/01/2021</t>
+          <t>22/02/2021</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>10.55</v>
+        <v>154.76</v>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>64/105</t>
+          <t>10/90</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>253.08</v>
+        <v>-93.52</v>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
     </row>
@@ -3165,27 +3161,27 @@
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>19/01/2021</t>
+          <t>22/02/2021</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>29/01/2021</t>
+          <t>03/03/2021</t>
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>-8.68</v>
+        <v>-25.23</v>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>54/104</t>
+          <t>27/89</t>
         </is>
       </c>
       <c r="G85" s="3" t="n">
-        <v>244.4</v>
+        <v>-95.15000000000001</v>
       </c>
       <c r="H85" s="3" t="inlineStr"/>
     </row>
@@ -3197,27 +3193,27 @@
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>29/01/2021</t>
+          <t>03/03/2021</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>10/02/2021</t>
+          <t>11/03/2021</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>26.56</v>
+        <v>30.63</v>
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>25/105</t>
+          <t>52/90</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>270.96</v>
+        <v>-93.67</v>
       </c>
       <c r="H86" s="2" t="inlineStr"/>
     </row>
@@ -3229,27 +3225,27 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>10/02/2021</t>
+          <t>11/03/2021</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>17/02/2021</t>
+          <t>14/04/2021</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>-6.19</v>
+        <v>-64.88</v>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>37/104</t>
+          <t>84/89</t>
         </is>
       </c>
       <c r="G87" s="3" t="n">
-        <v>264.78</v>
+        <v>-97.78</v>
       </c>
       <c r="H87" s="3" t="inlineStr"/>
     </row>
@@ -3261,27 +3257,27 @@
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>17/02/2021</t>
+          <t>14/04/2021</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>23/02/2021</t>
+          <t>21/04/2021</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>4.38</v>
+        <v>21.8</v>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>95/105</t>
+          <t>62/90</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>269.16</v>
+        <v>-97.29000000000001</v>
       </c>
       <c r="H88" s="2" t="inlineStr"/>
     </row>
@@ -3293,27 +3289,27 @@
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>23/02/2021</t>
+          <t>21/04/2021</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>25/02/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>-5.7</v>
+        <v>-23.04</v>
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>32/104</t>
+          <t>21/89</t>
         </is>
       </c>
       <c r="G89" s="3" t="n">
-        <v>263.46</v>
+        <v>-97.91</v>
       </c>
       <c r="H89" s="3" t="inlineStr"/>
     </row>
@@ -3325,27 +3321,27 @@
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>25/02/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>10/03/2021</t>
+          <t>26/05/2021</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>22.49</v>
+        <v>22.09</v>
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>34/105</t>
+          <t>61/90</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>285.95</v>
+        <v>-97.45</v>
       </c>
       <c r="H90" s="2" t="inlineStr"/>
     </row>
@@ -3357,27 +3353,27 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>10/03/2021</t>
+          <t>26/05/2021</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>17/06/2021</t>
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E91" s="3" t="n">
-        <v>-13.77</v>
+        <v>-33.33</v>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>80/104</t>
+          <t>42/89</t>
         </is>
       </c>
       <c r="G91" s="3" t="n">
-        <v>272.19</v>
+        <v>-98.3</v>
       </c>
       <c r="H91" s="3" t="inlineStr"/>
     </row>
@@ -3389,27 +3385,27 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>17/06/2021</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>26/03/2021</t>
+          <t>22/06/2021</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
         <v>4</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>8.300000000000001</v>
+        <v>14.29</v>
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>71/105</t>
+          <t>77/90</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>280.49</v>
+        <v>-98.06</v>
       </c>
       <c r="H92" s="2" t="inlineStr"/>
     </row>
@@ -3421,27 +3417,27 @@
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>26/03/2021</t>
+          <t>22/06/2021</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>06/04/2021</t>
+          <t>28/06/2021</t>
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>-5.06</v>
+        <v>-16.87</v>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>18/104</t>
+          <t>13/89</t>
         </is>
       </c>
       <c r="G93" s="3" t="n">
-        <v>275.42</v>
+        <v>-98.39</v>
       </c>
       <c r="H93" s="3" t="inlineStr"/>
     </row>
@@ -3453,27 +3449,27 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>06/04/2021</t>
+          <t>28/06/2021</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>09/04/2021</t>
+          <t>06/07/2021</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>3.46</v>
+        <v>19.55</v>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>99/105</t>
+          <t>68/90</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>278.88</v>
+        <v>-98.06999999999999</v>
       </c>
       <c r="H94" s="2" t="inlineStr"/>
     </row>
@@ -3485,27 +3481,27 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>09/04/2021</t>
+          <t>06/07/2021</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>16/04/2021</t>
+          <t>16/07/2021</t>
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E95" s="3" t="n">
-        <v>-5.29</v>
+        <v>-23.9</v>
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>26/104</t>
+          <t>22/89</t>
         </is>
       </c>
       <c r="G95" s="3" t="n">
-        <v>273.59</v>
+        <v>-98.53</v>
       </c>
       <c r="H95" s="3" t="inlineStr"/>
     </row>
@@ -3517,27 +3513,27 @@
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>16/04/2021</t>
+          <t>16/07/2021</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>28/04/2021</t>
+          <t>26/07/2021</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>10.11</v>
+        <v>8.26</v>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>65/105</t>
+          <t>87/90</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>283.7</v>
+        <v>-98.41</v>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
     </row>
@@ -3549,27 +3545,27 @@
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>28/04/2021</t>
+          <t>26/07/2021</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>04/05/2021</t>
+          <t>18/08/2021</t>
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>-8.68</v>
+        <v>-12.6</v>
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>54/104</t>
+          <t>9/89</t>
         </is>
       </c>
       <c r="G97" s="3" t="n">
-        <v>275.02</v>
+        <v>-98.61</v>
       </c>
       <c r="H97" s="3" t="inlineStr"/>
     </row>
@@ -3581,27 +3577,27 @@
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>04/05/2021</t>
+          <t>18/08/2021</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>22/06/2021</t>
+          <t>23/08/2021</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>27.95</v>
+        <v>9.17</v>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>24/105</t>
+          <t>86/90</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>302.97</v>
+        <v>-98.48</v>
       </c>
       <c r="H98" s="2" t="inlineStr"/>
     </row>
@@ -3613,27 +3609,27 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>22/06/2021</t>
+          <t>23/08/2021</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>15/07/2021</t>
+          <t>14/09/2021</t>
         </is>
       </c>
       <c r="D99" s="3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>-13.31</v>
+        <v>-18.4</v>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>77/104</t>
+          <t>15/89</t>
         </is>
       </c>
       <c r="G99" s="3" t="n">
-        <v>289.66</v>
+        <v>-98.76000000000001</v>
       </c>
       <c r="H99" s="3" t="inlineStr"/>
     </row>
@@ -3645,27 +3641,27 @@
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>15/07/2021</t>
+          <t>14/09/2021</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>21/07/2021</t>
+          <t>23/09/2021</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>3.47</v>
+        <v>17.65</v>
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>98/105</t>
+          <t>70/90</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>293.13</v>
+        <v>-98.55</v>
       </c>
       <c r="H100" s="2" t="inlineStr"/>
     </row>
@@ -3677,27 +3673,27 @@
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>21/07/2021</t>
+          <t>23/09/2021</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>04/08/2021</t>
+          <t>06/10/2021</t>
         </is>
       </c>
       <c r="D101" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" s="3" t="n">
-        <v>-13.61</v>
+        <v>-7.92</v>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>78/104</t>
+          <t>1/89</t>
         </is>
       </c>
       <c r="G101" s="3" t="n">
-        <v>279.53</v>
+        <v>-98.66</v>
       </c>
       <c r="H101" s="3" t="inlineStr"/>
     </row>
@@ -3709,27 +3705,27 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>04/08/2021</t>
+          <t>06/10/2021</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>10/08/2021</t>
+          <t>11/10/2021</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>7.65</v>
+        <v>54.75</v>
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>79/105</t>
+          <t>37/90</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>287.18</v>
+        <v>-97.93000000000001</v>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
     </row>
@@ -3741,27 +3737,27 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>10/08/2021</t>
+          <t>11/10/2021</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>14/10/2021</t>
         </is>
       </c>
       <c r="D103" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>-6.91</v>
+        <v>-25.15</v>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>43/104</t>
+          <t>26/89</t>
         </is>
       </c>
       <c r="G103" s="3" t="n">
-        <v>280.26</v>
+        <v>-98.45</v>
       </c>
       <c r="H103" s="3" t="inlineStr"/>
     </row>
@@ -3773,27 +3769,27 @@
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>14/10/2021</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>27/08/2021</t>
+          <t>26/10/2021</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>6.41</v>
+        <v>15.62</v>
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>83/105</t>
+          <t>73/90</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
-        <v>286.67</v>
+        <v>-98.20999999999999</v>
       </c>
       <c r="H104" s="2" t="inlineStr"/>
     </row>
@@ -3805,27 +3801,27 @@
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>27/08/2021</t>
+          <t>26/10/2021</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>14/09/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="D105" s="3" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>-11.87</v>
+        <v>-42.57</v>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>74/104</t>
+          <t>56/89</t>
         </is>
       </c>
       <c r="G105" s="3" t="n">
-        <v>274.81</v>
+        <v>-98.97</v>
       </c>
       <c r="H105" s="3" t="inlineStr"/>
     </row>
@@ -3837,27 +3833,27 @@
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>14/09/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>04/10/2021</t>
+          <t>30/11/2021</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>4.82</v>
+        <v>11.76</v>
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>92/105</t>
+          <t>81/90</t>
         </is>
       </c>
       <c r="G106" s="2" t="n">
-        <v>279.63</v>
+        <v>-98.84999999999999</v>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
     </row>
@@ -3869,27 +3865,27 @@
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>04/10/2021</t>
+          <t>30/11/2021</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>14/10/2021</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="D107" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>-3.22</v>
+        <v>-10.53</v>
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>2/104</t>
+          <t>4/89</t>
         </is>
       </c>
       <c r="G107" s="3" t="n">
-        <v>276.41</v>
+        <v>-98.97</v>
       </c>
       <c r="H107" s="3" t="inlineStr"/>
     </row>
@@ -3901,27 +3897,27 @@
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>14/10/2021</t>
+          <t>03/12/2021</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>27/10/2021</t>
+          <t>10/12/2021</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>8.32</v>
+        <v>17.65</v>
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>70/105</t>
+          <t>70/90</t>
         </is>
       </c>
       <c r="G108" s="2" t="n">
-        <v>284.73</v>
+        <v>-98.79000000000001</v>
       </c>
       <c r="H108" s="2" t="inlineStr"/>
     </row>
@@ -3933,27 +3929,27 @@
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>27/10/2021</t>
+          <t>10/12/2021</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>02/11/2021</t>
+          <t>27/12/2021</t>
         </is>
       </c>
       <c r="D109" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>-4.9</v>
+        <v>-38</v>
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>16/104</t>
+          <t>50/89</t>
         </is>
       </c>
       <c r="G109" s="3" t="n">
-        <v>279.82</v>
+        <v>-99.25</v>
       </c>
       <c r="H109" s="3" t="inlineStr"/>
     </row>
@@ -3965,27 +3961,27 @@
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>02/11/2021</t>
+          <t>27/12/2021</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>08/11/2021</t>
+          <t>04/01/2022</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>3.88</v>
+        <v>79.03</v>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>97/105</t>
+          <t>23/90</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
-        <v>283.7</v>
+        <v>-98.65000000000001</v>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
     </row>
@@ -3997,27 +3993,27 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>08/11/2021</t>
+          <t>04/01/2022</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="D111" s="3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>-18.54</v>
+        <v>-44.14</v>
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>87/104</t>
+          <t>60/89</t>
         </is>
       </c>
       <c r="G111" s="3" t="n">
-        <v>265.17</v>
+        <v>-99.25</v>
       </c>
       <c r="H111" s="3" t="inlineStr"/>
     </row>
@@ -4029,27 +4025,27 @@
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>27/12/2021</t>
+          <t>16/02/2022</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>38.03</v>
+        <v>20.97</v>
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>12/105</t>
+          <t>64/90</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
-        <v>303.2</v>
+        <v>-99.09</v>
       </c>
       <c r="H112" s="2" t="inlineStr"/>
     </row>
@@ -4061,27 +4057,27 @@
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>27/12/2021</t>
+          <t>16/02/2022</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>03/01/2022</t>
+          <t>28/02/2022</t>
         </is>
       </c>
       <c r="D113" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>-7.67</v>
+        <v>-20</v>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>46/104</t>
+          <t>17/89</t>
         </is>
       </c>
       <c r="G113" s="3" t="n">
-        <v>295.52</v>
+        <v>-99.27</v>
       </c>
       <c r="H113" s="3" t="inlineStr"/>
     </row>
@@ -4093,27 +4089,27 @@
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>03/01/2022</t>
+          <t>28/02/2022</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>14/01/2022</t>
+          <t>03/03/2022</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>6.29</v>
+        <v>15</v>
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>84/105</t>
+          <t>76/90</t>
         </is>
       </c>
       <c r="G114" s="2" t="n">
-        <v>301.81</v>
+        <v>-99.16</v>
       </c>
       <c r="H114" s="2" t="inlineStr"/>
     </row>
@@ -4125,27 +4121,27 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>14/01/2022</t>
+          <t>03/03/2022</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="D115" s="3" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>-10.27</v>
+        <v>-52.17</v>
       </c>
       <c r="F115" s="3" t="inlineStr">
         <is>
-          <t>67/104</t>
+          <t>68/89</t>
         </is>
       </c>
       <c r="G115" s="3" t="n">
-        <v>291.55</v>
+        <v>-99.59999999999999</v>
       </c>
       <c r="H115" s="3" t="inlineStr"/>
     </row>
@@ -4157,27 +4153,27 @@
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>21/01/2022</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>09/02/2022</t>
+          <t>02/05/2022</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>8.26</v>
+        <v>32.42</v>
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>72/105</t>
+          <t>50/90</t>
         </is>
       </c>
       <c r="G116" s="2" t="n">
-        <v>299.81</v>
+        <v>-99.47</v>
       </c>
       <c r="H116" s="2" t="inlineStr"/>
     </row>
@@ -4189,27 +4185,27 @@
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>09/02/2022</t>
+          <t>02/05/2022</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>14/03/2022</t>
+          <t>19/05/2022</t>
         </is>
       </c>
       <c r="D117" s="3" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>-20.75</v>
+        <v>-49.66</v>
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>92/104</t>
+          <t>66/89</t>
         </is>
       </c>
       <c r="G117" s="3" t="n">
-        <v>279.06</v>
+        <v>-99.73</v>
       </c>
       <c r="H117" s="3" t="inlineStr"/>
     </row>
@@ -4221,27 +4217,27 @@
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>14/03/2022</t>
+          <t>19/05/2022</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>13.61</v>
+        <v>45.45</v>
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>57/105</t>
+          <t>40/90</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>292.67</v>
+        <v>-99.61</v>
       </c>
       <c r="H118" s="2" t="inlineStr"/>
     </row>
@@ -4253,27 +4249,27 @@
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="D119" s="3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>-4.53</v>
+        <v>-56.25</v>
       </c>
       <c r="F119" s="3" t="inlineStr">
         <is>
-          <t>13/104</t>
+          <t>73/89</t>
         </is>
       </c>
       <c r="G119" s="3" t="n">
-        <v>288.14</v>
+        <v>-99.83</v>
       </c>
       <c r="H119" s="3" t="inlineStr"/>
     </row>
@@ -4285,27 +4281,27 @@
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>23/06/2022</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>7.97</v>
+        <v>42.86</v>
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>76/105</t>
+          <t>41/90</t>
         </is>
       </c>
       <c r="G120" s="2" t="n">
-        <v>296.11</v>
+        <v>-99.76000000000001</v>
       </c>
       <c r="H120" s="2" t="inlineStr"/>
     </row>
@@ -4317,27 +4313,27 @@
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>23/06/2022</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>08/04/2022</t>
+          <t>29/08/2022</t>
         </is>
       </c>
       <c r="D121" s="3" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="E121" s="3" t="n">
-        <v>-8.300000000000001</v>
+        <v>-35</v>
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>52/104</t>
+          <t>45/89</t>
         </is>
       </c>
       <c r="G121" s="3" t="n">
-        <v>287.82</v>
+        <v>-99.84</v>
       </c>
       <c r="H121" s="3" t="inlineStr"/>
     </row>
@@ -4349,27 +4345,27 @@
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>08/04/2022</t>
+          <t>29/08/2022</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>14/04/2022</t>
+          <t>08/09/2022</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>5.46</v>
+        <v>15.38</v>
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>88/105</t>
+          <t>75/90</t>
         </is>
       </c>
       <c r="G122" s="2" t="n">
-        <v>293.28</v>
+        <v>-99.81999999999999</v>
       </c>
       <c r="H122" s="2" t="inlineStr"/>
     </row>
@@ -4381,27 +4377,27 @@
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>14/04/2022</t>
+          <t>08/09/2022</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>11/05/2022</t>
+          <t>12/09/2022</t>
         </is>
       </c>
       <c r="D123" s="3" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E123" s="3" t="n">
-        <v>-29.49</v>
+        <v>-16.67</v>
       </c>
       <c r="F123" s="3" t="inlineStr">
         <is>
-          <t>101/104</t>
+          <t>11/89</t>
         </is>
       </c>
       <c r="G123" s="3" t="n">
-        <v>263.79</v>
+        <v>-99.84999999999999</v>
       </c>
       <c r="H123" s="3" t="inlineStr"/>
     </row>
@@ -4413,27 +4409,27 @@
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>11/05/2022</t>
+          <t>12/09/2022</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>07/06/2022</t>
+          <t>16/09/2022</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>22.79</v>
+        <v>12</v>
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>33/105</t>
+          <t>80/90</t>
         </is>
       </c>
       <c r="G124" s="2" t="n">
-        <v>286.58</v>
+        <v>-99.83</v>
       </c>
       <c r="H124" s="2" t="inlineStr"/>
     </row>
@@ -4445,27 +4441,27 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>07/06/2022</t>
+          <t>16/09/2022</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>13/06/2022</t>
+          <t>02/11/2022</t>
         </is>
       </c>
       <c r="D125" s="3" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>-20.88</v>
+        <v>-35.71</v>
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t>94/104</t>
+          <t>46/89</t>
         </is>
       </c>
       <c r="G125" s="3" t="n">
-        <v>265.7</v>
+        <v>-99.89</v>
       </c>
       <c r="H125" s="3" t="inlineStr"/>
     </row>
@@ -4477,27 +4473,27 @@
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>13/06/2022</t>
+          <t>02/11/2022</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>28/07/2022</t>
+          <t>09/11/2022</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>35.39</v>
+        <v>55.56</v>
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>16/105</t>
+          <t>35/90</t>
         </is>
       </c>
       <c r="G126" s="2" t="n">
-        <v>301.09</v>
+        <v>-99.83</v>
       </c>
       <c r="H126" s="2" t="inlineStr"/>
     </row>
@@ -4509,27 +4505,27 @@
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>28/07/2022</t>
+          <t>09/11/2022</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>09/08/2022</t>
+          <t>15/11/2022</t>
         </is>
       </c>
       <c r="D127" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E127" s="3" t="n">
-        <v>-10.2</v>
+        <v>-21.43</v>
       </c>
       <c r="F127" s="3" t="inlineStr">
         <is>
-          <t>65/104</t>
+          <t>18/89</t>
         </is>
       </c>
       <c r="G127" s="3" t="n">
-        <v>290.88</v>
+        <v>-99.87</v>
       </c>
       <c r="H127" s="3" t="inlineStr"/>
     </row>
@@ -4541,27 +4537,27 @@
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>09/08/2022</t>
+          <t>15/11/2022</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>15/08/2022</t>
+          <t>21/11/2022</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
         <v>5</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>6.28</v>
+        <v>27.27</v>
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>85/105</t>
+          <t>56/90</t>
         </is>
       </c>
       <c r="G128" s="2" t="n">
-        <v>297.16</v>
+        <v>-99.83</v>
       </c>
       <c r="H128" s="2" t="inlineStr"/>
     </row>
@@ -4573,27 +4569,27 @@
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>15/08/2022</t>
+          <t>21/11/2022</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>17/08/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="D129" s="3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E129" s="3" t="n">
-        <v>-5.05</v>
+        <v>-32.14</v>
       </c>
       <c r="F129" s="3" t="inlineStr">
         <is>
-          <t>17/104</t>
+          <t>40/89</t>
         </is>
       </c>
       <c r="G129" s="3" t="n">
-        <v>292.12</v>
+        <v>-99.88</v>
       </c>
       <c r="H129" s="3" t="inlineStr"/>
     </row>
@@ -4605,27 +4601,27 @@
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>17/08/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>12/09/2022</t>
+          <t>09/02/2023</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>4.57</v>
+        <v>194.74</v>
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>94/105</t>
+          <t>8/90</t>
         </is>
       </c>
       <c r="G130" s="2" t="n">
-        <v>296.69</v>
+        <v>-99.66</v>
       </c>
       <c r="H130" s="2" t="inlineStr"/>
     </row>
@@ -4637,27 +4633,27 @@
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>12/09/2022</t>
+          <t>09/02/2023</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>23/09/2022</t>
+          <t>10/04/2023</t>
         </is>
       </c>
       <c r="D131" s="3" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E131" s="3" t="n">
-        <v>-18.52</v>
+        <v>-67.86</v>
       </c>
       <c r="F131" s="3" t="inlineStr">
         <is>
-          <t>86/104</t>
+          <t>86/89</t>
         </is>
       </c>
       <c r="G131" s="3" t="n">
-        <v>278.16</v>
+        <v>-99.89</v>
       </c>
       <c r="H131" s="3" t="inlineStr"/>
     </row>
@@ -4669,27 +4665,27 @@
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>23/09/2022</t>
+          <t>10/04/2023</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>04/10/2022</t>
+          <t>14/04/2023</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>14.69</v>
+        <v>11.11</v>
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>53/105</t>
+          <t>83/90</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>292.85</v>
+        <v>-99.88</v>
       </c>
       <c r="H132" s="2" t="inlineStr"/>
     </row>
@@ -4701,27 +4697,27 @@
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>04/10/2022</t>
+          <t>14/04/2023</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>20/10/2022</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="D133" s="3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E133" s="3" t="n">
-        <v>-13.92</v>
+        <v>-40</v>
       </c>
       <c r="F133" s="3" t="inlineStr">
         <is>
-          <t>81/104</t>
+          <t>51/89</t>
         </is>
       </c>
       <c r="G133" s="3" t="n">
-        <v>278.93</v>
+        <v>-99.93000000000001</v>
       </c>
       <c r="H133" s="3" t="inlineStr"/>
     </row>
@@ -4733,33 +4729,29 @@
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>20/10/2022</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>10/11/2022</t>
+          <t>04/05/2023</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>24.49</v>
+        <v>33.33</v>
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>29/105</t>
+          <t>47/90</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
-        <v>303.42</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>09/11/2022</t>
-        </is>
-      </c>
+        <v>-99.90000000000001</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
@@ -4769,27 +4761,27 @@
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>10/11/2022</t>
+          <t>04/05/2023</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>23/11/2022</t>
+          <t>22/05/2023</t>
         </is>
       </c>
       <c r="D135" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E135" s="3" t="n">
-        <v>-7.71</v>
+        <v>-25</v>
       </c>
       <c r="F135" s="3" t="inlineStr">
         <is>
-          <t>48/104</t>
+          <t>24/89</t>
         </is>
       </c>
       <c r="G135" s="3" t="n">
-        <v>295.71</v>
+        <v>-99.93000000000001</v>
       </c>
       <c r="H135" s="3" t="inlineStr"/>
     </row>
@@ -4801,27 +4793,27 @@
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>23/11/2022</t>
+          <t>22/05/2023</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>12/12/2022</t>
+          <t>05/06/2023</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>8.24</v>
+        <v>216.67</v>
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>73/105</t>
+          <t>7/90</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
-        <v>303.95</v>
+        <v>-99.77</v>
       </c>
       <c r="H136" s="2" t="inlineStr"/>
     </row>
@@ -4833,27 +4825,27 @@
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>12/12/2022</t>
+          <t>05/06/2023</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>28/12/2022</t>
+          <t>31/08/2023</t>
         </is>
       </c>
       <c r="D137" s="3" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E137" s="3" t="n">
-        <v>-8.779999999999999</v>
+        <v>-57.89</v>
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>56/104</t>
+          <t>78/89</t>
         </is>
       </c>
       <c r="G137" s="3" t="n">
-        <v>295.17</v>
+        <v>-99.90000000000001</v>
       </c>
       <c r="H137" s="3" t="inlineStr"/>
     </row>
@@ -4865,27 +4857,27 @@
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>28/12/2022</t>
+          <t>31/08/2023</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>06/03/2023</t>
+          <t>18/09/2023</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>59.74</v>
+        <v>133.12</v>
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>3/105</t>
+          <t>14/90</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
-        <v>354.91</v>
+        <v>-99.77</v>
       </c>
       <c r="H138" s="2" t="inlineStr"/>
     </row>
@@ -4897,27 +4889,27 @@
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>06/03/2023</t>
+          <t>18/09/2023</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>10/03/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="D139" s="3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>-8.130000000000001</v>
+        <v>-57.1</v>
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>50/104</t>
+          <t>76/89</t>
         </is>
       </c>
       <c r="G139" s="3" t="n">
-        <v>346.78</v>
+        <v>-99.90000000000001</v>
       </c>
       <c r="H139" s="3" t="inlineStr"/>
     </row>
@@ -4929,33 +4921,29 @@
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>10/03/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>17.38</v>
+        <v>50</v>
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>46/105</t>
+          <t>38/90</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
-        <v>364.16</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>15/03/2023</t>
-        </is>
-      </c>
+        <v>-99.84999999999999</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
@@ -4965,27 +4953,27 @@
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>05/04/2023</t>
+          <t>17/11/2023</t>
         </is>
       </c>
       <c r="D141" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E141" s="3" t="n">
-        <v>-5.65</v>
+        <v>-36.25</v>
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>30/104</t>
+          <t>47/89</t>
         </is>
       </c>
       <c r="G141" s="3" t="n">
-        <v>358.51</v>
+        <v>-99.91</v>
       </c>
       <c r="H141" s="3" t="inlineStr"/>
     </row>
@@ -4997,27 +4985,27 @@
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>05/04/2023</t>
+          <t>17/11/2023</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>28/04/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>7.85</v>
+        <v>120.92</v>
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>77/105</t>
+          <t>17/90</t>
         </is>
       </c>
       <c r="G142" s="2" t="n">
-        <v>366.36</v>
+        <v>-99.8</v>
       </c>
       <c r="H142" s="2" t="inlineStr"/>
     </row>
@@ -5029,27 +5017,27 @@
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>28/04/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t>04/05/2023</t>
+          <t>29/12/2023</t>
         </is>
       </c>
       <c r="D143" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E143" s="3" t="n">
-        <v>-5.06</v>
+        <v>-31.36</v>
       </c>
       <c r="F143" s="3" t="inlineStr">
         <is>
-          <t>18/104</t>
+          <t>37/89</t>
         </is>
       </c>
       <c r="G143" s="3" t="n">
-        <v>361.3</v>
+        <v>-99.86</v>
       </c>
       <c r="H143" s="3" t="inlineStr"/>
     </row>
@@ -5061,27 +5049,27 @@
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>04/05/2023</t>
+          <t>29/12/2023</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>22/05/2023</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>10.11</v>
+        <v>11.21</v>
       </c>
       <c r="F144" s="2" t="inlineStr">
         <is>
-          <t>65/105</t>
+          <t>82/90</t>
         </is>
       </c>
       <c r="G144" s="2" t="n">
-        <v>371.41</v>
+        <v>-99.84</v>
       </c>
       <c r="H144" s="2" t="inlineStr"/>
     </row>
@@ -5093,27 +5081,27 @@
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>22/05/2023</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>26/05/2023</t>
+          <t>22/01/2024</t>
         </is>
       </c>
       <c r="D145" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E145" s="3" t="n">
-        <v>-5.44</v>
+        <v>-37.98</v>
       </c>
       <c r="F145" s="3" t="inlineStr">
         <is>
-          <t>28/104</t>
+          <t>49/89</t>
         </is>
       </c>
       <c r="G145" s="3" t="n">
-        <v>365.97</v>
+        <v>-99.90000000000001</v>
       </c>
       <c r="H145" s="3" t="inlineStr"/>
     </row>
@@ -5125,27 +5113,27 @@
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>26/05/2023</t>
+          <t>22/01/2024</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>02/06/2023</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>5.32</v>
+        <v>57.5</v>
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>90/105</t>
+          <t>32/90</t>
         </is>
       </c>
       <c r="G146" s="2" t="n">
-        <v>371.29</v>
+        <v>-99.84999999999999</v>
       </c>
       <c r="H146" s="2" t="inlineStr"/>
     </row>
@@ -5157,27 +5145,27 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>02/06/2023</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>12/02/2024</t>
         </is>
       </c>
       <c r="D147" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>-4.74</v>
+        <v>-44.44</v>
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>15/104</t>
+          <t>61/89</t>
         </is>
       </c>
       <c r="G147" s="3" t="n">
-        <v>366.55</v>
+        <v>-99.92</v>
       </c>
       <c r="H147" s="3" t="inlineStr"/>
     </row>
@@ -5189,27 +5177,27 @@
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>12/02/2024</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>21/06/2023</t>
+          <t>26/02/2024</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>6.88</v>
+        <v>135.71</v>
       </c>
       <c r="F148" s="2" t="inlineStr">
         <is>
-          <t>80/105</t>
+          <t>12/90</t>
         </is>
       </c>
       <c r="G148" s="2" t="n">
-        <v>373.43</v>
+        <v>-99.8</v>
       </c>
       <c r="H148" s="2" t="inlineStr"/>
     </row>
@@ -5221,27 +5209,27 @@
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>21/06/2023</t>
+          <t>26/02/2024</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>26/06/2023</t>
+          <t>19/03/2024</t>
         </is>
       </c>
       <c r="D149" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>-5.93</v>
+        <v>-45.45</v>
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t>34/104</t>
+          <t>62/89</t>
         </is>
       </c>
       <c r="G149" s="3" t="n">
-        <v>367.49</v>
+        <v>-99.89</v>
       </c>
       <c r="H149" s="3" t="inlineStr"/>
     </row>
@@ -5253,29 +5241,33 @@
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>26/06/2023</t>
+          <t>19/03/2024</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>21/07/2023</t>
+          <t>08/05/2024</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>19.6</v>
+        <v>55.56</v>
       </c>
       <c r="F150" s="2" t="inlineStr">
         <is>
-          <t>40/105</t>
+          <t>35/90</t>
         </is>
       </c>
       <c r="G150" s="2" t="n">
-        <v>387.09</v>
-      </c>
-      <c r="H150" s="2" t="inlineStr"/>
+        <v>-99.83</v>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>15/04/2024</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
@@ -5285,27 +5277,27 @@
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>21/07/2023</t>
+          <t>08/05/2024</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>28/07/2023</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="D151" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>-4.53</v>
+        <v>-57.14</v>
       </c>
       <c r="F151" s="3" t="inlineStr">
         <is>
-          <t>13/104</t>
+          <t>77/89</t>
         </is>
       </c>
       <c r="G151" s="3" t="n">
-        <v>382.56</v>
+        <v>-99.93000000000001</v>
       </c>
       <c r="H151" s="3" t="inlineStr"/>
     </row>
@@ -5317,27 +5309,27 @@
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>28/07/2023</t>
+          <t>21/05/2024</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>03/06/2024</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>17.85</v>
+        <v>121.67</v>
       </c>
       <c r="F152" s="2" t="inlineStr">
         <is>
-          <t>43/105</t>
+          <t>16/90</t>
         </is>
       </c>
       <c r="G152" s="2" t="n">
-        <v>400.41</v>
+        <v>-99.84</v>
       </c>
       <c r="H152" s="2" t="inlineStr"/>
     </row>
@@ -5349,27 +5341,27 @@
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>03/06/2024</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>21/09/2023</t>
+          <t>17/07/2024</t>
         </is>
       </c>
       <c r="D153" s="3" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>-9.640000000000001</v>
+        <v>-22.56</v>
       </c>
       <c r="F153" s="3" t="inlineStr">
         <is>
-          <t>62/104</t>
+          <t>20/89</t>
         </is>
       </c>
       <c r="G153" s="3" t="n">
-        <v>390.77</v>
+        <v>-99.88</v>
       </c>
       <c r="H153" s="3" t="inlineStr"/>
     </row>
@@ -5381,27 +5373,27 @@
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>21/09/2023</t>
+          <t>17/07/2024</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>5.8</v>
+        <v>26.21</v>
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>87/105</t>
+          <t>57/90</t>
         </is>
       </c>
       <c r="G154" s="2" t="n">
-        <v>396.57</v>
+        <v>-99.84</v>
       </c>
       <c r="H154" s="2" t="inlineStr"/>
     </row>
@@ -5413,27 +5405,27 @@
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>27/09/2023</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>04/10/2023</t>
+          <t>07/08/2024</t>
         </is>
       </c>
       <c r="D155" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E155" s="3" t="n">
-        <v>-6.54</v>
+        <v>-30.77</v>
       </c>
       <c r="F155" s="3" t="inlineStr">
         <is>
-          <t>39/104</t>
+          <t>34/89</t>
         </is>
       </c>
       <c r="G155" s="3" t="n">
-        <v>390.03</v>
+        <v>-99.89</v>
       </c>
       <c r="H155" s="3" t="inlineStr"/>
     </row>
@@ -5445,27 +5437,27 @@
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>04/10/2023</t>
+          <t>07/08/2024</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>21/08/2024</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>8.07</v>
+        <v>15.56</v>
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>74/105</t>
+          <t>74/90</t>
         </is>
       </c>
       <c r="G156" s="2" t="n">
-        <v>398.1</v>
+        <v>-99.87</v>
       </c>
       <c r="H156" s="2" t="inlineStr"/>
     </row>
@@ -5477,27 +5469,27 @@
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>21/08/2024</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>23/09/2024</t>
         </is>
       </c>
       <c r="D157" s="3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E157" s="3" t="n">
-        <v>-9.300000000000001</v>
+        <v>-61.54</v>
       </c>
       <c r="F157" s="3" t="inlineStr">
         <is>
-          <t>60/104</t>
+          <t>81/89</t>
         </is>
       </c>
       <c r="G157" s="3" t="n">
-        <v>388.8</v>
+        <v>-99.95</v>
       </c>
       <c r="H157" s="3" t="inlineStr"/>
     </row>
@@ -5509,27 +5501,27 @@
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>23/09/2024</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>15/11/2023</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>30.94</v>
+        <v>125</v>
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>20/105</t>
+          <t>15/90</t>
         </is>
       </c>
       <c r="G158" s="2" t="n">
-        <v>419.74</v>
+        <v>-99.89</v>
       </c>
       <c r="H158" s="2" t="inlineStr"/>
     </row>
@@ -5541,27 +5533,27 @@
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>15/11/2023</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="D159" s="3" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>-4.25</v>
+        <v>-55.56</v>
       </c>
       <c r="F159" s="3" t="inlineStr">
         <is>
-          <t>10/104</t>
+          <t>72/89</t>
         </is>
       </c>
       <c r="G159" s="3" t="n">
-        <v>415.49</v>
+        <v>-99.95</v>
       </c>
       <c r="H159" s="3" t="inlineStr"/>
     </row>
@@ -5573,27 +5565,27 @@
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>22/01/2025</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>37.77</v>
+        <v>275</v>
       </c>
       <c r="F160" s="2" t="inlineStr">
         <is>
-          <t>14/105</t>
+          <t>5/90</t>
         </is>
       </c>
       <c r="G160" s="2" t="n">
-        <v>453.26</v>
+        <v>-99.81999999999999</v>
       </c>
       <c r="H160" s="2" t="inlineStr"/>
     </row>
@@ -5605,27 +5597,27 @@
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>22/01/2025</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>27/01/2025</t>
         </is>
       </c>
       <c r="D161" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E161" s="3" t="n">
-        <v>-5.92</v>
+        <v>-26.67</v>
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>33/104</t>
+          <t>31/89</t>
         </is>
       </c>
       <c r="G161" s="3" t="n">
-        <v>447.34</v>
+        <v>-99.87</v>
       </c>
       <c r="H161" s="3" t="inlineStr"/>
     </row>
@@ -5637,27 +5629,27 @@
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>27/01/2025</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>05/04/2024</t>
+          <t>30/01/2025</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>38.23</v>
+        <v>16.36</v>
       </c>
       <c r="F162" s="2" t="inlineStr">
         <is>
-          <t>10/105</t>
+          <t>72/90</t>
         </is>
       </c>
       <c r="G162" s="2" t="n">
-        <v>485.57</v>
+        <v>-99.84</v>
       </c>
       <c r="H162" s="2" t="inlineStr"/>
     </row>
@@ -5669,27 +5661,27 @@
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>05/04/2024</t>
+          <t>30/01/2025</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>18/04/2024</t>
+          <t>07/03/2025</t>
         </is>
       </c>
       <c r="D163" s="3" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>-6.39</v>
+        <v>-60.94</v>
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>38/104</t>
+          <t>80/89</t>
         </is>
       </c>
       <c r="G163" s="3" t="n">
-        <v>479.17</v>
+        <v>-99.94</v>
       </c>
       <c r="H163" s="3" t="inlineStr"/>
     </row>
@@ -5701,27 +5693,27 @@
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>18/04/2024</t>
+          <t>07/03/2025</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>28/05/2024</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>24.83</v>
+        <v>40</v>
       </c>
       <c r="F164" s="2" t="inlineStr">
         <is>
-          <t>28/105</t>
+          <t>42/90</t>
         </is>
       </c>
       <c r="G164" s="2" t="n">
-        <v>504</v>
+        <v>-99.92</v>
       </c>
       <c r="H164" s="2" t="inlineStr"/>
     </row>
@@ -5733,33 +5725,29 @@
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>28/05/2024</t>
+          <t>12/03/2025</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>04/06/2024</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="D165" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E165" s="3" t="n">
-        <v>-7.61</v>
+        <v>-83.14</v>
       </c>
       <c r="F165" s="3" t="inlineStr">
         <is>
-          <t>45/104</t>
+          <t>89/89</t>
         </is>
       </c>
       <c r="G165" s="3" t="n">
-        <v>496.4</v>
-      </c>
-      <c r="H165" s="3" t="inlineStr">
-        <is>
-          <t>30/05/2024</t>
-        </is>
-      </c>
+        <v>-99.98999999999999</v>
+      </c>
+      <c r="H165" s="3" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
@@ -5769,27 +5757,27 @@
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>04/06/2024</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>02/07/2024</t>
+          <t>15/04/2025</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>38.04</v>
+        <v>493.22</v>
       </c>
       <c r="F166" s="2" t="inlineStr">
         <is>
-          <t>11/105</t>
+          <t>2/90</t>
         </is>
       </c>
       <c r="G166" s="2" t="n">
-        <v>534.4400000000001</v>
+        <v>-99.92</v>
       </c>
       <c r="H166" s="2" t="inlineStr"/>
     </row>
@@ -5801,29 +5789,33 @@
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>02/07/2024</t>
+          <t>15/04/2025</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t>10/07/2024</t>
+          <t>21/04/2025</t>
         </is>
       </c>
       <c r="D167" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>-11.38</v>
+        <v>-21.43</v>
       </c>
       <c r="F167" s="3" t="inlineStr">
         <is>
-          <t>73/104</t>
+          <t>18/89</t>
         </is>
       </c>
       <c r="G167" s="3" t="n">
-        <v>523.05</v>
-      </c>
-      <c r="H167" s="3" t="inlineStr"/>
+        <v>-99.93000000000001</v>
+      </c>
+      <c r="H167" s="3" t="inlineStr">
+        <is>
+          <t>21/04/2025</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
@@ -5833,29 +5825,33 @@
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>10/07/2024</t>
+          <t>21/04/2025</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>26/07/2024</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>17.73</v>
+        <v>25.45</v>
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>44/105</t>
+          <t>58/90</t>
         </is>
       </c>
       <c r="G168" s="2" t="n">
-        <v>540.78</v>
-      </c>
-      <c r="H168" s="2" t="inlineStr"/>
+        <v>-99.92</v>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>21/04/2025</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
@@ -5865,29 +5861,33 @@
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>26/07/2024</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>05/08/2024</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D169" s="3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E169" s="3" t="n">
-        <v>-13.72</v>
+        <v>-41.88</v>
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>79/104</t>
+          <t>54/89</t>
         </is>
       </c>
       <c r="G169" s="3" t="n">
-        <v>527.0599999999999</v>
-      </c>
-      <c r="H169" s="3" t="inlineStr"/>
+        <v>-99.95</v>
+      </c>
+      <c r="H169" s="3" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
@@ -5897,27 +5897,27 @@
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>05/08/2024</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>30/08/2024</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>31.9</v>
+        <v>623.1900000000001</v>
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>18/105</t>
+          <t>1/90</t>
         </is>
       </c>
       <c r="G170" s="2" t="n">
-        <v>558.96</v>
+        <v>-99.65000000000001</v>
       </c>
       <c r="H170" s="2" t="inlineStr"/>
     </row>
@@ -5929,27 +5929,27 @@
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>30/08/2024</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>06/09/2024</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="D171" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E171" s="3" t="n">
-        <v>-11.94</v>
+        <v>-47.59</v>
       </c>
       <c r="F171" s="3" t="inlineStr">
         <is>
-          <t>75/104</t>
+          <t>64/89</t>
         </is>
       </c>
       <c r="G171" s="3" t="n">
-        <v>547.03</v>
+        <v>-99.81999999999999</v>
       </c>
       <c r="H171" s="3" t="inlineStr"/>
     </row>
@@ -5961,27 +5961,27 @@
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>06/09/2024</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>31.58</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>19/105</t>
+          <t>21/90</t>
         </is>
       </c>
       <c r="G172" s="2" t="n">
-        <v>578.61</v>
+        <v>-99.65000000000001</v>
       </c>
       <c r="H172" s="2" t="inlineStr"/>
     </row>
@@ -5993,27 +5993,27 @@
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>31/10/2024</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="D173" s="3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E173" s="3" t="n">
-        <v>-9.220000000000001</v>
+        <v>-17.24</v>
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t>59/104</t>
+          <t>14/89</t>
         </is>
       </c>
       <c r="G173" s="3" t="n">
-        <v>569.39</v>
+        <v>-99.70999999999999</v>
       </c>
       <c r="H173" s="3" t="inlineStr"/>
     </row>
@@ -6025,27 +6025,27 @@
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>31/10/2024</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>07/08/2025</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>22.49</v>
+        <v>420.83</v>
       </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
-          <t>34/105</t>
+          <t>3/90</t>
         </is>
       </c>
       <c r="G174" s="2" t="n">
-        <v>591.88</v>
+        <v>-98.48</v>
       </c>
       <c r="H174" s="2" t="inlineStr"/>
     </row>
@@ -6057,27 +6057,27 @@
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>07/08/2025</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>15/10/2025</t>
         </is>
       </c>
       <c r="D175" s="3" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E175" s="3" t="n">
-        <v>-4.09</v>
+        <v>-63.52</v>
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>7/104</t>
+          <t>82/89</t>
         </is>
       </c>
       <c r="G175" s="3" t="n">
-        <v>587.79</v>
+        <v>-99.45</v>
       </c>
       <c r="H175" s="3" t="inlineStr"/>
     </row>
@@ -6089,27 +6089,27 @@
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>15/10/2025</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>21/11/2024</t>
+          <t>29/10/2025</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>10.98</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
-          <t>63/105</t>
+          <t>85/90</t>
         </is>
       </c>
       <c r="G176" s="2" t="n">
-        <v>598.77</v>
+        <v>-99.39</v>
       </c>
       <c r="H176" s="2" t="inlineStr"/>
     </row>
@@ -6121,27 +6121,27 @@
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>21/11/2024</t>
+          <t>29/10/2025</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
         <is>
-          <t>30/12/2024</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="D177" s="3" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E177" s="3" t="n">
-        <v>-27.69</v>
+        <v>-30.14</v>
       </c>
       <c r="F177" s="3" t="inlineStr">
         <is>
-          <t>98/104</t>
+          <t>32/89</t>
         </is>
       </c>
       <c r="G177" s="3" t="n">
-        <v>571.0700000000001</v>
+        <v>-99.58</v>
       </c>
       <c r="H177" s="3" t="inlineStr"/>
     </row>
@@ -6153,27 +6153,27 @@
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>30/12/2024</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>10/01/2025</t>
+          <t>17/12/2025</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>37.56</v>
+        <v>80.87</v>
       </c>
       <c r="F178" s="2" t="inlineStr">
         <is>
-          <t>15/105</t>
+          <t>22/90</t>
         </is>
       </c>
       <c r="G178" s="2" t="n">
-        <v>608.63</v>
+        <v>-99.23</v>
       </c>
       <c r="H178" s="2" t="inlineStr"/>
     </row>
@@ -6185,27 +6185,27 @@
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>10/01/2025</t>
+          <t>17/12/2025</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>21/01/2025</t>
+          <t>19/12/2025</t>
         </is>
       </c>
       <c r="D179" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E179" s="3" t="n">
-        <v>-51.85</v>
+        <v>-11.06</v>
       </c>
       <c r="F179" s="3" t="inlineStr">
         <is>
-          <t>103/104</t>
+          <t>5/89</t>
         </is>
       </c>
       <c r="G179" s="3" t="n">
-        <v>556.78</v>
+        <v>-99.31999999999999</v>
       </c>
       <c r="H179" s="3" t="inlineStr"/>
     </row>
@@ -6217,1001 +6217,29 @@
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>21/01/2025</t>
+          <t>19/12/2025</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>11/02/2025</t>
+          <t>29/12/2025</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>42.63</v>
+        <v>6.57</v>
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>7/105</t>
+          <t>90/90</t>
         </is>
       </c>
       <c r="G180" s="2" t="n">
-        <v>599.41</v>
+        <v>-99.27</v>
       </c>
       <c r="H180" s="2" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B181" s="3" t="inlineStr">
-        <is>
-          <t>11/02/2025</t>
-        </is>
-      </c>
-      <c r="C181" s="3" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
-      </c>
-      <c r="D181" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E181" s="3" t="n">
-        <v>-9.699999999999999</v>
-      </c>
-      <c r="F181" s="3" t="inlineStr">
-        <is>
-          <t>63/104</t>
-        </is>
-      </c>
-      <c r="G181" s="3" t="n">
-        <v>589.71</v>
-      </c>
-      <c r="H181" s="3" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>13/02/2025</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>20/02/2025</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E182" s="2" t="n">
-        <v>33.27</v>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>17/105</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="n">
-        <v>622.98</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B183" s="3" t="inlineStr">
-        <is>
-          <t>20/02/2025</t>
-        </is>
-      </c>
-      <c r="C183" s="3" t="inlineStr">
-        <is>
-          <t>13/03/2025</t>
-        </is>
-      </c>
-      <c r="D183" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="E183" s="3" t="n">
-        <v>-29.65</v>
-      </c>
-      <c r="F183" s="3" t="inlineStr">
-        <is>
-          <t>102/104</t>
-        </is>
-      </c>
-      <c r="G183" s="3" t="n">
-        <v>593.33</v>
-      </c>
-      <c r="H183" s="3" t="inlineStr">
-        <is>
-          <t>28/02/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>13/03/2025</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>25/03/2025</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E184" s="2" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>50/105</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="n">
-        <v>609.25</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B185" s="3" t="inlineStr">
-        <is>
-          <t>25/03/2025</t>
-        </is>
-      </c>
-      <c r="C185" s="3" t="inlineStr">
-        <is>
-          <t>04/04/2025</t>
-        </is>
-      </c>
-      <c r="D185" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E185" s="3" t="n">
-        <v>-24.47</v>
-      </c>
-      <c r="F185" s="3" t="inlineStr">
-        <is>
-          <t>95/104</t>
-        </is>
-      </c>
-      <c r="G185" s="3" t="n">
-        <v>584.78</v>
-      </c>
-      <c r="H185" s="3" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>04/04/2025</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>09/04/2025</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E186" s="2" t="n">
-        <v>23.36</v>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>31/105</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="n">
-        <v>608.14</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B187" s="3" t="inlineStr">
-        <is>
-          <t>09/04/2025</t>
-        </is>
-      </c>
-      <c r="C187" s="3" t="inlineStr">
-        <is>
-          <t>21/04/2025</t>
-        </is>
-      </c>
-      <c r="D187" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E187" s="3" t="n">
-        <v>-19.83</v>
-      </c>
-      <c r="F187" s="3" t="inlineStr">
-        <is>
-          <t>89/104</t>
-        </is>
-      </c>
-      <c r="G187" s="3" t="n">
-        <v>588.3200000000001</v>
-      </c>
-      <c r="H187" s="3" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>21/04/2025</t>
-        </is>
-      </c>
-      <c r="C188" s="2" t="inlineStr">
-        <is>
-          <t>29/04/2025</t>
-        </is>
-      </c>
-      <c r="D188" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E188" s="2" t="n">
-        <v>24.96</v>
-      </c>
-      <c r="F188" s="2" t="inlineStr">
-        <is>
-          <t>27/105</t>
-        </is>
-      </c>
-      <c r="G188" s="2" t="n">
-        <v>613.28</v>
-      </c>
-      <c r="H188" s="2" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B189" s="3" t="inlineStr">
-        <is>
-          <t>29/04/2025</t>
-        </is>
-      </c>
-      <c r="C189" s="3" t="inlineStr">
-        <is>
-          <t>01/05/2025</t>
-        </is>
-      </c>
-      <c r="D189" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E189" s="3" t="n">
-        <v>-20.38</v>
-      </c>
-      <c r="F189" s="3" t="inlineStr">
-        <is>
-          <t>90/104</t>
-        </is>
-      </c>
-      <c r="G189" s="3" t="n">
-        <v>592.89</v>
-      </c>
-      <c r="H189" s="3" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>01/05/2025</t>
-        </is>
-      </c>
-      <c r="C190" s="2" t="inlineStr">
-        <is>
-          <t>19/05/2025</t>
-        </is>
-      </c>
-      <c r="D190" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E190" s="2" t="n">
-        <v>41.21</v>
-      </c>
-      <c r="F190" s="2" t="inlineStr">
-        <is>
-          <t>9/105</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="n">
-        <v>634.1</v>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>02/05/2025, 05/05/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B191" s="3" t="inlineStr">
-        <is>
-          <t>19/05/2025</t>
-        </is>
-      </c>
-      <c r="C191" s="3" t="inlineStr">
-        <is>
-          <t>22/05/2025</t>
-        </is>
-      </c>
-      <c r="D191" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E191" s="3" t="n">
-        <v>-7.74</v>
-      </c>
-      <c r="F191" s="3" t="inlineStr">
-        <is>
-          <t>49/104</t>
-        </is>
-      </c>
-      <c r="G191" s="3" t="n">
-        <v>626.36</v>
-      </c>
-      <c r="H191" s="3" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr">
-        <is>
-          <t>22/05/2025</t>
-        </is>
-      </c>
-      <c r="C192" s="2" t="inlineStr">
-        <is>
-          <t>06/06/2025</t>
-        </is>
-      </c>
-      <c r="D192" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E192" s="2" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="F192" s="2" t="inlineStr">
-        <is>
-          <t>56/105</t>
-        </is>
-      </c>
-      <c r="G192" s="2" t="n">
-        <v>640.74</v>
-      </c>
-      <c r="H192" s="2" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B193" s="3" t="inlineStr">
-        <is>
-          <t>06/06/2025</t>
-        </is>
-      </c>
-      <c r="C193" s="3" t="inlineStr">
-        <is>
-          <t>11/06/2025</t>
-        </is>
-      </c>
-      <c r="D193" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E193" s="3" t="n">
-        <v>-6.83</v>
-      </c>
-      <c r="F193" s="3" t="inlineStr">
-        <is>
-          <t>42/104</t>
-        </is>
-      </c>
-      <c r="G193" s="3" t="n">
-        <v>633.92</v>
-      </c>
-      <c r="H193" s="3" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>11/06/2025</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>24/06/2025</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E194" s="2" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>58/105</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="n">
-        <v>646.13</v>
-      </c>
-      <c r="H194" s="2" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B195" s="3" t="inlineStr">
-        <is>
-          <t>24/06/2025</t>
-        </is>
-      </c>
-      <c r="C195" s="3" t="inlineStr">
-        <is>
-          <t>08/07/2025</t>
-        </is>
-      </c>
-      <c r="D195" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="E195" s="3" t="n">
-        <v>-18.73</v>
-      </c>
-      <c r="F195" s="3" t="inlineStr">
-        <is>
-          <t>88/104</t>
-        </is>
-      </c>
-      <c r="G195" s="3" t="n">
-        <v>627.4</v>
-      </c>
-      <c r="H195" s="3" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>08/07/2025</t>
-        </is>
-      </c>
-      <c r="C196" s="2" t="inlineStr">
-        <is>
-          <t>17/07/2025</t>
-        </is>
-      </c>
-      <c r="D196" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E196" s="2" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="F196" s="2" t="inlineStr">
-        <is>
-          <t>89/105</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="n">
-        <v>632.77</v>
-      </c>
-      <c r="H196" s="2" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B197" s="3" t="inlineStr">
-        <is>
-          <t>17/07/2025</t>
-        </is>
-      </c>
-      <c r="C197" s="3" t="inlineStr">
-        <is>
-          <t>22/07/2025</t>
-        </is>
-      </c>
-      <c r="D197" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E197" s="3" t="n">
-        <v>-4.09</v>
-      </c>
-      <c r="F197" s="3" t="inlineStr">
-        <is>
-          <t>7/104</t>
-        </is>
-      </c>
-      <c r="G197" s="3" t="n">
-        <v>628.6799999999999</v>
-      </c>
-      <c r="H197" s="3" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B198" s="2" t="inlineStr">
-        <is>
-          <t>22/07/2025</t>
-        </is>
-      </c>
-      <c r="C198" s="2" t="inlineStr">
-        <is>
-          <t>22/09/2025</t>
-        </is>
-      </c>
-      <c r="D198" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="E198" s="2" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>2/105</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="n">
-        <v>693.02</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B199" s="3" t="inlineStr">
-        <is>
-          <t>22/09/2025</t>
-        </is>
-      </c>
-      <c r="C199" s="3" t="inlineStr">
-        <is>
-          <t>29/09/2025</t>
-        </is>
-      </c>
-      <c r="D199" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E199" s="3" t="n">
-        <v>-10.24</v>
-      </c>
-      <c r="F199" s="3" t="inlineStr">
-        <is>
-          <t>66/104</t>
-        </is>
-      </c>
-      <c r="G199" s="3" t="n">
-        <v>682.78</v>
-      </c>
-      <c r="H199" s="3" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B200" s="2" t="inlineStr">
-        <is>
-          <t>29/09/2025</t>
-        </is>
-      </c>
-      <c r="C200" s="2" t="inlineStr">
-        <is>
-          <t>15/10/2025</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E200" s="2" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="F200" s="2" t="inlineStr">
-        <is>
-          <t>82/105</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="n">
-        <v>689.45</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B201" s="3" t="inlineStr">
-        <is>
-          <t>15/10/2025</t>
-        </is>
-      </c>
-      <c r="C201" s="3" t="inlineStr">
-        <is>
-          <t>17/10/2025</t>
-        </is>
-      </c>
-      <c r="D201" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E201" s="3" t="n">
-        <v>-4.3</v>
-      </c>
-      <c r="F201" s="3" t="inlineStr">
-        <is>
-          <t>11/104</t>
-        </is>
-      </c>
-      <c r="G201" s="3" t="n">
-        <v>685.15</v>
-      </c>
-      <c r="H201" s="3" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>17/10/2025</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>27/10/2025</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E202" s="2" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="F202" s="2" t="inlineStr">
-        <is>
-          <t>62/105</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="n">
-        <v>696.2</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B203" s="3" t="inlineStr">
-        <is>
-          <t>27/10/2025</t>
-        </is>
-      </c>
-      <c r="C203" s="3" t="inlineStr">
-        <is>
-          <t>04/11/2025</t>
-        </is>
-      </c>
-      <c r="D203" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E203" s="3" t="n">
-        <v>-16.07</v>
-      </c>
-      <c r="F203" s="3" t="inlineStr">
-        <is>
-          <t>83/104</t>
-        </is>
-      </c>
-      <c r="G203" s="3" t="n">
-        <v>680.13</v>
-      </c>
-      <c r="H203" s="3" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>04/11/2025</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>11/12/2025</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="E204" s="2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>45/105</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="n">
-        <v>697.63</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>13/11/2025, 14/11/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B205" s="3" t="inlineStr">
-        <is>
-          <t>11/12/2025</t>
-        </is>
-      </c>
-      <c r="C205" s="3" t="inlineStr">
-        <is>
-          <t>17/12/2025</t>
-        </is>
-      </c>
-      <c r="D205" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E205" s="3" t="n">
-        <v>-10.62</v>
-      </c>
-      <c r="F205" s="3" t="inlineStr">
-        <is>
-          <t>70/104</t>
-        </is>
-      </c>
-      <c r="G205" s="3" t="n">
-        <v>687.01</v>
-      </c>
-      <c r="H205" s="3" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>17/12/2025</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>22/01/2026</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E206" s="2" t="n">
-        <v>80.29000000000001</v>
-      </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>1/105</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="n">
-        <v>767.3</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B207" s="3" t="inlineStr">
-        <is>
-          <t>22/01/2026</t>
-        </is>
-      </c>
-      <c r="C207" s="3" t="inlineStr">
-        <is>
-          <t>28/01/2026</t>
-        </is>
-      </c>
-      <c r="D207" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E207" s="3" t="n">
-        <v>-6.08</v>
-      </c>
-      <c r="F207" s="3" t="inlineStr">
-        <is>
-          <t>36/104</t>
-        </is>
-      </c>
-      <c r="G207" s="3" t="n">
-        <v>761.22</v>
-      </c>
-      <c r="H207" s="3" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>28/01/2026</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>03/02/2026</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E208" s="2" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>96/105</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="n">
-        <v>765.15</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="3" t="inlineStr">
-        <is>
-          <t>DOWN</t>
-        </is>
-      </c>
-      <c r="B209" s="3" t="inlineStr">
-        <is>
-          <t>03/02/2026</t>
-        </is>
-      </c>
-      <c r="C209" s="3" t="inlineStr">
-        <is>
-          <t>05/02/2026</t>
-        </is>
-      </c>
-      <c r="D209" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E209" s="3" t="n">
-        <v>-9.550000000000001</v>
-      </c>
-      <c r="F209" s="3" t="inlineStr">
-        <is>
-          <t>61/104</t>
-        </is>
-      </c>
-      <c r="G209" s="3" t="n">
-        <v>755.6</v>
-      </c>
-      <c r="H209" s="3" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t>RISE</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>05/02/2026</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>13/02/2026</t>
-        </is>
-      </c>
-      <c r="D210" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E210" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F210" s="2" t="inlineStr">
-        <is>
-          <t>75/105</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="n">
-        <v>763.6</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
